--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,40 +1,141 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+  <si>
+    <t>Consecutivo</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>Pagado</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Selecta </t>
+  </si>
+  <si>
+    <t>Novillon San Mateo</t>
+  </si>
+  <si>
+    <t>Pinilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnilandia </t>
+  </si>
+  <si>
+    <t>Cimarron Dorado</t>
+  </si>
+  <si>
+    <t>Darwin Futbol</t>
+  </si>
+  <si>
+    <t>Aliso</t>
+  </si>
+  <si>
+    <t>Davidcito</t>
+  </si>
+  <si>
+    <t>Carnivoros</t>
+  </si>
+  <si>
+    <t>Juliana Pollo</t>
+  </si>
+  <si>
+    <t>Arroz paisa Suba</t>
+  </si>
+  <si>
+    <t>Plaza Jessica</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Multicarnes</t>
+  </si>
+  <si>
+    <t>Santander Norte</t>
+  </si>
+  <si>
+    <t>Cocina China</t>
+  </si>
+  <si>
+    <t>Campo Verde Zipaquira</t>
+  </si>
+  <si>
+    <t>Portal Zipaquira</t>
+  </si>
+  <si>
+    <t>Merka Fruver Alejandro</t>
+  </si>
+  <si>
+    <t>Merka Fruver Mildred</t>
+  </si>
+  <si>
+    <t>Pinilla Soacha</t>
+  </si>
+  <si>
+    <t>Meza 2</t>
+  </si>
+  <si>
+    <t>Vnzlno Punta Anca</t>
+  </si>
+  <si>
+    <t>El Ruby</t>
+  </si>
+  <si>
+    <t>Santander Sur</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,94 +150,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -424,85 +467,507 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Consecutivo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Cliente</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Fecha</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Pagado</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Ferrocam</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>45994</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30000</v>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45650</v>
+      </c>
+      <c r="D2">
+        <v>171900</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:5">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ferrocam</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>45997</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D3">
+        <v>82000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45971</v>
+      </c>
+      <c r="D4">
+        <v>83000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45924</v>
+      </c>
+      <c r="D5">
+        <v>16000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D6">
+        <v>166000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45990</v>
+      </c>
+      <c r="D7">
+        <v>436900</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45992</v>
+      </c>
+      <c r="D8">
+        <v>407000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45921</v>
+      </c>
+      <c r="D9">
+        <v>200000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45983</v>
+      </c>
+      <c r="D10">
+        <v>101000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45947</v>
+      </c>
+      <c r="D11">
+        <v>100000</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45959</v>
+      </c>
+      <c r="D12">
+        <v>437000</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45968</v>
+      </c>
+      <c r="D13">
+        <v>170000</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45987</v>
+      </c>
+      <c r="D14">
+        <v>166000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45989</v>
+      </c>
+      <c r="D15">
+        <v>1071600</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D16">
+        <v>571000</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
+        <v>45987</v>
+      </c>
+      <c r="D17">
+        <v>1313000</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>45989</v>
+      </c>
+      <c r="D18">
+        <v>558300</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45973</v>
+      </c>
+      <c r="D19">
+        <v>216400</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45992</v>
+      </c>
+      <c r="D20">
+        <v>170000</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>45988</v>
+      </c>
+      <c r="D21">
+        <v>884200</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45988</v>
+      </c>
+      <c r="D22">
+        <v>664000</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
+        <v>45988</v>
+      </c>
+      <c r="D23">
+        <v>860000</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
+        <v>45988</v>
+      </c>
+      <c r="D24">
+        <v>115400</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D25">
+        <v>129000</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45989</v>
+      </c>
+      <c r="D26">
+        <v>188000</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45992</v>
+      </c>
+      <c r="D27">
+        <v>82000</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45992</v>
+      </c>
+      <c r="D28">
+        <v>85100</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D29">
         <v>80000</v>
       </c>
-      <c r="E3" t="b">
+      <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,10 +31,58 @@
     <t>Pagado</t>
   </si>
   <si>
+    <t>Aliso</t>
+  </si>
+  <si>
+    <t>Campo Verde Zipaquira</t>
+  </si>
+  <si>
+    <t>Carnes Johana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carnilandia </t>
+  </si>
+  <si>
+    <t>Carnivoros</t>
+  </si>
+  <si>
+    <t>Cimarron Dorado</t>
+  </si>
+  <si>
+    <t>Cocina China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cocina China </t>
+  </si>
+  <si>
+    <t>Darwin Futbol</t>
+  </si>
+  <si>
+    <t>Davidcito</t>
+  </si>
+  <si>
+    <t>El Ruby</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Selecta </t>
+  </si>
+  <si>
     <t>Mariana</t>
   </si>
   <si>
-    <t xml:space="preserve">La Selecta </t>
+    <t>Merka Fruver Alejandro</t>
+  </si>
+  <si>
+    <t>Merka Fruver Mildred</t>
+  </si>
+  <si>
+    <t>Meza 2</t>
+  </si>
+  <si>
+    <t>Multicarnes</t>
   </si>
   <si>
     <t>Novillon San Mateo</t>
@@ -43,70 +91,19 @@
     <t>Pinilla</t>
   </si>
   <si>
-    <t xml:space="preserve">Carnilandia </t>
-  </si>
-  <si>
-    <t>Cimarron Dorado</t>
-  </si>
-  <si>
-    <t>Darwin Futbol</t>
-  </si>
-  <si>
-    <t>Aliso</t>
-  </si>
-  <si>
-    <t>Davidcito</t>
-  </si>
-  <si>
-    <t>Carnivoros</t>
-  </si>
-  <si>
-    <t>Juliana Pollo</t>
-  </si>
-  <si>
-    <t>Arroz paisa Suba</t>
+    <t>Pinilla Soacha</t>
   </si>
   <si>
     <t>Plaza Jessica</t>
   </si>
   <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Multicarnes</t>
-  </si>
-  <si>
     <t>Santander Norte</t>
   </si>
   <si>
-    <t>Cocina China</t>
-  </si>
-  <si>
-    <t>Campo Verde Zipaquira</t>
-  </si>
-  <si>
-    <t>Portal Zipaquira</t>
-  </si>
-  <si>
-    <t>Merka Fruver Alejandro</t>
-  </si>
-  <si>
-    <t>Merka Fruver Mildred</t>
-  </si>
-  <si>
-    <t>Pinilla Soacha</t>
-  </si>
-  <si>
-    <t>Meza 2</t>
+    <t>Santander Sur</t>
   </si>
   <si>
     <t>Vnzlno Punta Anca</t>
-  </si>
-  <si>
-    <t>El Ruby</t>
-  </si>
-  <si>
-    <t>Santander Sur</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45650</v>
+        <v>45983</v>
       </c>
       <c r="D2">
-        <v>171900</v>
+        <v>101000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -516,10 +513,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>45912</v>
+        <v>45988</v>
       </c>
       <c r="D3">
-        <v>82000</v>
+        <v>64200</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -533,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>45971</v>
+        <v>45993</v>
       </c>
       <c r="D4">
-        <v>83000</v>
+        <v>176000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -550,10 +547,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>45924</v>
+        <v>45990</v>
       </c>
       <c r="D5">
-        <v>16000</v>
+        <v>436900</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -564,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>45931</v>
+        <v>45959</v>
       </c>
       <c r="D6">
-        <v>166000</v>
+        <v>437000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -581,13 +578,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="D7">
-        <v>436900</v>
+        <v>407000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -598,13 +595,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>45992</v>
       </c>
       <c r="D8">
-        <v>407000</v>
+        <v>170000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -615,13 +612,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45921</v>
+        <v>45994</v>
       </c>
       <c r="D9">
-        <v>200000</v>
+        <v>85000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -632,13 +629,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45983</v>
+        <v>45921</v>
       </c>
       <c r="D10">
-        <v>101000</v>
+        <v>200000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -649,7 +646,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>45947</v>
@@ -666,13 +663,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>45959</v>
+        <v>45992</v>
       </c>
       <c r="D12">
-        <v>437000</v>
+        <v>85100</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -683,13 +680,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45968</v>
+        <v>45987</v>
       </c>
       <c r="D13">
-        <v>170000</v>
+        <v>1313000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -700,13 +697,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45987</v>
+        <v>45912</v>
       </c>
       <c r="D14">
-        <v>166000</v>
+        <v>82000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -717,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45989</v>
+        <v>45650</v>
       </c>
       <c r="D15">
-        <v>1071600</v>
+        <v>171900</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -734,13 +731,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>45993</v>
+        <v>45988</v>
       </c>
       <c r="D16">
-        <v>571000</v>
+        <v>60900</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -751,13 +748,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>45987</v>
+        <v>45988</v>
       </c>
       <c r="D17">
-        <v>1313000</v>
+        <v>115400</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -768,13 +765,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>45989</v>
       </c>
       <c r="D18">
-        <v>558300</v>
+        <v>188000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -785,13 +782,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>45973</v>
+        <v>45989</v>
       </c>
       <c r="D19">
-        <v>216400</v>
+        <v>558300</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -802,13 +799,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>45992</v>
+        <v>45971</v>
       </c>
       <c r="D20">
-        <v>170000</v>
+        <v>83000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -819,13 +816,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <v>45988</v>
+        <v>45931</v>
       </c>
       <c r="D21">
-        <v>884200</v>
+        <v>166000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -836,13 +833,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45988</v>
+        <v>45924</v>
       </c>
       <c r="D22">
-        <v>664000</v>
+        <v>16000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -853,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="D23">
-        <v>860000</v>
+        <v>129000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -870,13 +867,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <v>45988</v>
+        <v>45993</v>
       </c>
       <c r="D24">
-        <v>115400</v>
+        <v>621000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -887,13 +884,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>45993</v>
+        <v>45973</v>
       </c>
       <c r="D25">
-        <v>129000</v>
+        <v>216400</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -904,13 +901,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
-        <v>45989</v>
+        <v>45993</v>
       </c>
       <c r="D26">
-        <v>188000</v>
+        <v>80000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -921,7 +918,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
         <v>45992</v>
@@ -930,40 +927,6 @@
         <v>82000</v>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2">
-        <v>45992</v>
-      </c>
-      <c r="D28">
-        <v>85100</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2">
-        <v>45993</v>
-      </c>
-      <c r="D29">
-        <v>80000</v>
-      </c>
-      <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,79 +31,73 @@
     <t>Pagado</t>
   </si>
   <si>
-    <t>Aliso</t>
-  </si>
-  <si>
-    <t>Campo Verde Zipaquira</t>
-  </si>
-  <si>
-    <t>Carnes Johana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carnilandia </t>
-  </si>
-  <si>
-    <t>Carnivoros</t>
-  </si>
-  <si>
-    <t>Cimarron Dorado</t>
-  </si>
-  <si>
-    <t>Cocina China</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocina China </t>
-  </si>
-  <si>
-    <t>Darwin Futbol</t>
-  </si>
-  <si>
-    <t>Davidcito</t>
-  </si>
-  <si>
-    <t>El Ruby</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Selecta </t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Merka Fruver Alejandro</t>
-  </si>
-  <si>
-    <t>Merka Fruver Mildred</t>
-  </si>
-  <si>
-    <t>Meza 2</t>
-  </si>
-  <si>
-    <t>Multicarnes</t>
-  </si>
-  <si>
-    <t>Novillon San Mateo</t>
-  </si>
-  <si>
-    <t>Pinilla</t>
-  </si>
-  <si>
-    <t>Pinilla Soacha</t>
-  </si>
-  <si>
-    <t>Plaza Jessica</t>
-  </si>
-  <si>
-    <t>Santander Norte</t>
-  </si>
-  <si>
-    <t>Santander Sur</t>
-  </si>
-  <si>
-    <t>Vnzlno Punta Anca</t>
+    <t>ALISO</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE ZIPAQUIRA</t>
+  </si>
+  <si>
+    <t>CARNES JOHANA</t>
+  </si>
+  <si>
+    <t>CARNILANDIA</t>
+  </si>
+  <si>
+    <t>CARNIVOROS</t>
+  </si>
+  <si>
+    <t>CIMARRON DORADO</t>
+  </si>
+  <si>
+    <t>COCINA CHINA</t>
+  </si>
+  <si>
+    <t>DARWIN FUTBOL</t>
+  </si>
+  <si>
+    <t>DAVIDCITO</t>
+  </si>
+  <si>
+    <t>EL RUBY</t>
+  </si>
+  <si>
+    <t>LA PAMPA</t>
+  </si>
+  <si>
+    <t>LA SELECTA</t>
+  </si>
+  <si>
+    <t>MARIANA</t>
+  </si>
+  <si>
+    <t>MERKA FRUVER ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MERKA FRUVER MILDRED</t>
+  </si>
+  <si>
+    <t>MEZA 2</t>
+  </si>
+  <si>
+    <t>MULTICARNES</t>
+  </si>
+  <si>
+    <t>NOVILLON SAN MATEO</t>
+  </si>
+  <si>
+    <t>PINILLA</t>
+  </si>
+  <si>
+    <t>PINILLA SOACHA</t>
+  </si>
+  <si>
+    <t>PLAZA JESSICA</t>
+  </si>
+  <si>
+    <t>SANTANDER SUR</t>
+  </si>
+  <si>
+    <t>VNZLNO PUNTA ANCA</t>
   </si>
 </sst>
 </file>
@@ -465,7 +459,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -547,10 +541,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>45990</v>
+        <v>45994</v>
       </c>
       <c r="D5">
-        <v>436900</v>
+        <v>436700</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -567,7 +561,7 @@
         <v>45959</v>
       </c>
       <c r="D6">
-        <v>437000</v>
+        <v>200000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -612,7 +606,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>45994</v>
@@ -629,7 +623,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>45921</v>
@@ -646,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>45947</v>
@@ -663,7 +657,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>45992</v>
@@ -680,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>45987</v>
+        <v>45994</v>
       </c>
       <c r="D13">
-        <v>1313000</v>
+        <v>249000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -697,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>45912</v>
@@ -714,7 +708,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>45650</v>
@@ -731,7 +725,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>45988</v>
@@ -748,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>45988</v>
@@ -765,7 +759,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>45989</v>
@@ -782,7 +776,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>45989</v>
@@ -799,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>45971</v>
@@ -816,7 +810,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>45931</v>
@@ -833,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
         <v>45924</v>
@@ -850,7 +844,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
         <v>45993</v>
@@ -867,7 +861,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>45993</v>
@@ -884,13 +878,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
-        <v>45973</v>
+        <v>45993</v>
       </c>
       <c r="D25">
-        <v>216400</v>
+        <v>80000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -901,32 +895,15 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="D26">
-        <v>80000</v>
+        <v>82000</v>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45992</v>
-      </c>
-      <c r="D27">
-        <v>82000</v>
-      </c>
-      <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -592,10 +592,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="D8">
-        <v>170000</v>
+        <v>85000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -606,13 +606,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45994</v>
+        <v>45921</v>
       </c>
       <c r="D9">
-        <v>85000</v>
+        <v>200000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45921</v>
+        <v>45947</v>
       </c>
       <c r="D10">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -640,13 +640,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>45947</v>
+        <v>45992</v>
       </c>
       <c r="D11">
-        <v>100000</v>
+        <v>85100</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -657,13 +657,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="D12">
-        <v>85100</v>
+        <v>249000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -674,13 +674,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45994</v>
+        <v>45912</v>
       </c>
       <c r="D13">
-        <v>249000</v>
+        <v>82000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -691,13 +691,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45912</v>
+        <v>45650</v>
       </c>
       <c r="D14">
-        <v>82000</v>
+        <v>171900</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -708,13 +708,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45650</v>
+        <v>45988</v>
       </c>
       <c r="D15">
-        <v>171900</v>
+        <v>60900</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -725,13 +725,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
         <v>45988</v>
       </c>
       <c r="D16">
-        <v>60900</v>
+        <v>115400</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <v>45988</v>
+        <v>45989</v>
       </c>
       <c r="D17">
-        <v>115400</v>
+        <v>188000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -759,13 +759,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
         <v>45989</v>
       </c>
       <c r="D18">
-        <v>188000</v>
+        <v>558300</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <v>45989</v>
+        <v>45971</v>
       </c>
       <c r="D19">
-        <v>558300</v>
+        <v>83000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -793,13 +793,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <v>45971</v>
+        <v>45931</v>
       </c>
       <c r="D20">
-        <v>83000</v>
+        <v>166000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -813,10 +813,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>45931</v>
+        <v>45924</v>
       </c>
       <c r="D21">
-        <v>166000</v>
+        <v>16000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45924</v>
+        <v>45993</v>
       </c>
       <c r="D22">
-        <v>16000</v>
+        <v>129000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -844,13 +844,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>45993</v>
       </c>
       <c r="D23">
-        <v>129000</v>
+        <v>621000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="D24">
-        <v>621000</v>
+        <v>1580300</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\El_Diamante\AppDeudores\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -73,15 +78,6 @@
     <t>MERKA FRUVER ALEJANDRO</t>
   </si>
   <si>
-    <t>MERKA FRUVER MILDRED</t>
-  </si>
-  <si>
-    <t>MEZA 2</t>
-  </si>
-  <si>
-    <t>MULTICARNES</t>
-  </si>
-  <si>
     <t>NOVILLON SAN MATEO</t>
   </si>
   <si>
@@ -98,16 +94,28 @@
   </si>
   <si>
     <t>VNZLNO PUNTA ANCA</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
+  </si>
+  <si>
+    <t>MERKA FRUVER DEXI</t>
+  </si>
+  <si>
+    <t>PORTAL ZIPA</t>
+  </si>
+  <si>
+    <t>SANTANDER MADRID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,11 +179,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,9 +265,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +300,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,14 +476,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -490,407 +514,407 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45983</v>
+        <v>45996</v>
       </c>
       <c r="D2">
-        <v>101000</v>
+        <v>196000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="D3">
-        <v>64200</v>
+        <v>635000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="D4">
-        <v>176000</v>
+        <v>684200</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="D5">
-        <v>436700</v>
+        <v>176000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>45959</v>
+        <v>45996</v>
       </c>
       <c r="D6">
-        <v>200000</v>
+        <v>82000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="D7">
-        <v>407000</v>
+        <v>436700</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>45994</v>
+        <v>45959</v>
       </c>
       <c r="D8">
-        <v>85000</v>
+        <v>200000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>45921</v>
+        <v>45992</v>
       </c>
       <c r="D9">
-        <v>200000</v>
+        <v>407000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
-        <v>45947</v>
+        <v>45996</v>
       </c>
       <c r="D10">
-        <v>100000</v>
+        <v>298700</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="D11">
-        <v>85100</v>
+        <v>85000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>45994</v>
+        <v>45921</v>
       </c>
       <c r="D12">
-        <v>249000</v>
+        <v>200000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>45912</v>
+        <v>45947</v>
       </c>
       <c r="D13">
-        <v>82000</v>
+        <v>100000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>45650</v>
+        <v>45992</v>
       </c>
       <c r="D14">
-        <v>171900</v>
+        <v>85100</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>45988</v>
+        <v>45994</v>
       </c>
       <c r="D15">
-        <v>60900</v>
+        <v>249000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45988</v>
+        <v>45912</v>
       </c>
       <c r="D16">
-        <v>115400</v>
+        <v>82000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>45989</v>
+        <v>45650</v>
       </c>
       <c r="D17">
-        <v>188000</v>
+        <v>171900</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45989</v>
+        <v>45995</v>
       </c>
       <c r="D18">
-        <v>558300</v>
+        <v>954600</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2">
-        <v>45971</v>
+        <v>45995</v>
       </c>
       <c r="D19">
-        <v>83000</v>
+        <v>454400</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>45931</v>
+        <v>45971</v>
       </c>
       <c r="D20">
-        <v>166000</v>
+        <v>83000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>45924</v>
+        <v>45931</v>
       </c>
       <c r="D21">
-        <v>16000</v>
+        <v>166000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>45993</v>
+        <v>45924</v>
       </c>
       <c r="D22">
-        <v>129000</v>
+        <v>16000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
         <v>45993</v>
       </c>
       <c r="D23">
-        <v>621000</v>
+        <v>129000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>45995</v>
+        <v>45993</v>
       </c>
       <c r="D24">
-        <v>1580300</v>
+        <v>621000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="D25">
-        <v>80000</v>
+        <v>1580300</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -898,12 +922,63 @@
         <v>27</v>
       </c>
       <c r="C26" s="2">
+        <v>45995</v>
+      </c>
+      <c r="D26">
+        <v>66400</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45996</v>
+      </c>
+      <c r="D27">
+        <v>63000</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D28">
+        <v>80000</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2">
         <v>45992</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>82000</v>
       </c>
-      <c r="E26" t="b">
+      <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\El_Diamante\AppDeudores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnmorales\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -39,6 +39,15 @@
     <t>ALISO</t>
   </si>
   <si>
+    <t>CALDAS WOK</t>
+  </si>
+  <si>
+    <t>CAMILIN</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
+  </si>
+  <si>
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
@@ -63,6 +72,9 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
+    <t>EL RES</t>
+  </si>
+  <si>
     <t>EL RUBY</t>
   </si>
   <si>
@@ -78,9 +90,18 @@
     <t>MERKA FRUVER ALEJANDRO</t>
   </si>
   <si>
+    <t>MERKA FRUVER DEXI</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
     <t>NOVILLON SAN MATEO</t>
   </si>
   <si>
+    <t>PARAÍSO FUNZA</t>
+  </si>
+  <si>
     <t>PINILLA</t>
   </si>
   <si>
@@ -90,22 +111,19 @@
     <t>PLAZA JESSICA</t>
   </si>
   <si>
+    <t>PORTAL ZIPA</t>
+  </si>
+  <si>
+    <t>SANTANDER MADRID</t>
+  </si>
+  <si>
     <t>SANTANDER SUR</t>
   </si>
   <si>
     <t>VNZLNO PUNTA ANCA</t>
   </si>
   <si>
-    <t>CAMPO VERDE TOCANCIPA</t>
-  </si>
-  <si>
-    <t>MERKA FRUVER DEXI</t>
-  </si>
-  <si>
-    <t>PORTAL ZIPA</t>
-  </si>
-  <si>
-    <t>SANTANDER MADRID</t>
+    <t>LOS PAISANOS</t>
   </si>
 </sst>
 </file>
@@ -477,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,13 +546,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="D3">
-        <v>635000</v>
+        <v>85000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -545,13 +563,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="D4">
-        <v>684200</v>
+        <v>166000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -562,13 +580,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="D5">
-        <v>176000</v>
+        <v>635000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -579,13 +597,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>45996</v>
+        <v>45988</v>
       </c>
       <c r="D6">
-        <v>82000</v>
+        <v>64200</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -596,13 +614,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="D7">
-        <v>436700</v>
+        <v>620000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -613,13 +631,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>45959</v>
+        <v>45993</v>
       </c>
       <c r="D8">
-        <v>200000</v>
+        <v>176000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -633,10 +651,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="D9">
-        <v>407000</v>
+        <v>82000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -647,13 +665,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="D10">
-        <v>298700</v>
+        <v>300700</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -664,13 +682,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>45994</v>
+        <v>45959</v>
       </c>
       <c r="D11">
-        <v>85000</v>
+        <v>200000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -681,13 +699,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>45921</v>
+        <v>45992</v>
       </c>
       <c r="D12">
-        <v>200000</v>
+        <v>407000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -701,10 +719,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>45947</v>
+        <v>45996</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>298700</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -718,10 +736,10 @@
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="D14">
-        <v>85100</v>
+        <v>85000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -735,10 +753,10 @@
         <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>45994</v>
+        <v>45921</v>
       </c>
       <c r="D15">
-        <v>249000</v>
+        <v>200000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -752,10 +770,10 @@
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>45912</v>
+        <v>45947</v>
       </c>
       <c r="D16">
-        <v>82000</v>
+        <v>100000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -769,10 +787,10 @@
         <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>45650</v>
+        <v>45997</v>
       </c>
       <c r="D17">
-        <v>171900</v>
+        <v>240000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -786,10 +804,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45995</v>
+        <v>45992</v>
       </c>
       <c r="D18">
-        <v>954600</v>
+        <v>85100</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -800,13 +818,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="D19">
-        <v>454400</v>
+        <v>249000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -817,13 +835,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45971</v>
+        <v>45912</v>
       </c>
       <c r="D20">
-        <v>83000</v>
+        <v>82000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -834,13 +852,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
-        <v>45931</v>
+        <v>45995</v>
       </c>
       <c r="D21">
-        <v>166000</v>
+        <v>438500</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -851,13 +869,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>45924</v>
+        <v>45650</v>
       </c>
       <c r="D22">
-        <v>16000</v>
+        <v>171900</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -868,13 +886,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>45993</v>
+        <v>45988</v>
       </c>
       <c r="D23">
-        <v>129000</v>
+        <v>60900</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -888,10 +906,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>45993</v>
+        <v>45995</v>
       </c>
       <c r="D24">
-        <v>621000</v>
+        <v>893700</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -902,13 +920,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>45995</v>
+        <v>45988</v>
       </c>
       <c r="D25">
-        <v>1580300</v>
+        <v>115400</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -919,13 +937,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>45995</v>
       </c>
       <c r="D26">
-        <v>66400</v>
+        <v>339000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -936,13 +954,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
         <v>45996</v>
       </c>
       <c r="D27">
-        <v>63000</v>
+        <v>229000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -953,13 +971,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>45993</v>
+        <v>45971</v>
       </c>
       <c r="D28">
-        <v>80000</v>
+        <v>83000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -970,15 +988,185 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
+        <v>45996</v>
+      </c>
+      <c r="D29">
+        <v>202000</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45924</v>
+      </c>
+      <c r="D30">
+        <v>16000</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D31">
+        <v>166000</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D32">
+        <v>129000</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D33">
+        <v>621000</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45995</v>
+      </c>
+      <c r="D34">
+        <v>1580300</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45995</v>
+      </c>
+      <c r="D35">
+        <v>66400</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45996</v>
+      </c>
+      <c r="D36">
+        <v>63000</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45997</v>
+      </c>
+      <c r="D37">
+        <v>250700</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D38">
+        <v>80000</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2">
         <v>45992</v>
       </c>
-      <c r="D29">
+      <c r="D39">
         <v>82000</v>
       </c>
-      <c r="E29" t="b">
+      <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnmorales\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\El_Diamante\AppDeudores\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,7 +1096,7 @@
         <v>45995</v>
       </c>
       <c r="D35">
-        <v>66400</v>
+        <v>664000</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\El_Diamante\AppDeudores\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -39,21 +34,9 @@
     <t>ALISO</t>
   </si>
   <si>
-    <t>CALDAS WOK</t>
-  </si>
-  <si>
     <t>CAMILIN</t>
   </si>
   <si>
-    <t>CAMPO VERDE TOCANCIPA</t>
-  </si>
-  <si>
-    <t>CAMPO VERDE ZIPAQUIRA</t>
-  </si>
-  <si>
-    <t>CARNES JOHANA</t>
-  </si>
-  <si>
     <t>CARNILANDIA</t>
   </si>
   <si>
@@ -63,6 +46,9 @@
     <t>CIMARRON DORADO</t>
   </si>
   <si>
+    <t>CLIENTE PAOLA</t>
+  </si>
+  <si>
     <t>COCINA CHINA</t>
   </si>
   <si>
@@ -78,18 +64,12 @@
     <t>EL RUBY</t>
   </si>
   <si>
-    <t>LA PAMPA</t>
+    <t>FRANCO</t>
   </si>
   <si>
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>MARIANA</t>
-  </si>
-  <si>
-    <t>MERKA FRUVER ALEJANDRO</t>
-  </si>
-  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
@@ -102,6 +82,9 @@
     <t>PARAÍSO FUNZA</t>
   </si>
   <si>
+    <t>PARAÍSO MOSQUERA</t>
+  </si>
+  <si>
     <t>PINILLA</t>
   </si>
   <si>
@@ -114,6 +97,12 @@
     <t>PORTAL ZIPA</t>
   </si>
   <si>
+    <t>PUNTA DE ANCA</t>
+  </si>
+  <si>
+    <t>SANDRA 20 DE JULIO</t>
+  </si>
+  <si>
     <t>SANTANDER MADRID</t>
   </si>
   <si>
@@ -121,19 +110,16 @@
   </si>
   <si>
     <t>VNZLNO PUNTA ANCA</t>
-  </si>
-  <si>
-    <t>LOS PAISANOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,19 +183,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -251,7 +229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,10 +261,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,7 +295,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -494,20 +470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -541,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -552,13 +522,13 @@
         <v>45997</v>
       </c>
       <c r="D3">
-        <v>85000</v>
+        <v>166000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -566,16 +536,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="D4">
-        <v>166000</v>
+        <v>436000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -583,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>45995</v>
+        <v>45959</v>
       </c>
       <c r="D5">
-        <v>635000</v>
+        <v>200000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -600,573 +570,471 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>45988</v>
+        <v>46000</v>
       </c>
       <c r="D6">
-        <v>64200</v>
+        <v>473300</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="D7">
-        <v>620000</v>
+        <v>92000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="D8">
-        <v>176000</v>
+        <v>170000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45996</v>
+        <v>45921</v>
       </c>
       <c r="D9">
-        <v>82000</v>
+        <v>200000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45997</v>
+        <v>45947</v>
       </c>
       <c r="D10">
-        <v>300700</v>
+        <v>100000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>45959</v>
+        <v>45997</v>
       </c>
       <c r="D11">
-        <v>200000</v>
+        <v>240000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>45992</v>
       </c>
       <c r="D12">
-        <v>407000</v>
+        <v>85100</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>45996</v>
       </c>
       <c r="D13">
-        <v>298700</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>45994</v>
+        <v>45912</v>
       </c>
       <c r="D14">
-        <v>85000</v>
+        <v>82000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45921</v>
+        <v>45995</v>
       </c>
       <c r="D15">
-        <v>200000</v>
+        <v>339000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>45947</v>
+        <v>45988</v>
       </c>
       <c r="D16">
-        <v>100000</v>
+        <v>115400</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>45997</v>
+        <v>46000</v>
       </c>
       <c r="D17">
-        <v>240000</v>
+        <v>164000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="D18">
-        <v>85100</v>
+        <v>229000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>45994</v>
+        <v>45971</v>
       </c>
       <c r="D19">
-        <v>249000</v>
+        <v>83000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>45912</v>
+        <v>45996</v>
       </c>
       <c r="D20">
-        <v>82000</v>
+        <v>202000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="D21">
-        <v>438500</v>
+        <v>354900</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>45650</v>
+        <v>45924</v>
       </c>
       <c r="D22">
-        <v>171900</v>
+        <v>16000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>45988</v>
+        <v>45931</v>
       </c>
       <c r="D23">
-        <v>60900</v>
+        <v>166000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>45995</v>
+        <v>45993</v>
       </c>
       <c r="D24">
-        <v>893700</v>
+        <v>129000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>45988</v>
+        <v>45999</v>
       </c>
       <c r="D25">
-        <v>115400</v>
+        <v>971300</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>45995</v>
+        <v>46000</v>
       </c>
       <c r="D26">
-        <v>339000</v>
+        <v>1238000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="D27">
-        <v>229000</v>
+        <v>224000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>45971</v>
+        <v>46000</v>
       </c>
       <c r="D28">
-        <v>83000</v>
+        <v>7600</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="D29">
-        <v>202000</v>
+        <v>300000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>45924</v>
+        <v>45996</v>
       </c>
       <c r="D30">
-        <v>16000</v>
+        <v>63000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>45931</v>
+        <v>45997</v>
       </c>
       <c r="D31">
-        <v>166000</v>
+        <v>250700</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2">
         <v>45993</v>
       </c>
       <c r="D32">
-        <v>129000</v>
+        <v>80000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="D33">
-        <v>621000</v>
+        <v>82000</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="2">
-        <v>45995</v>
-      </c>
-      <c r="D34">
-        <v>1580300</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="2">
-        <v>45995</v>
-      </c>
-      <c r="D35">
-        <v>664000</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="2">
-        <v>45996</v>
-      </c>
-      <c r="D36">
-        <v>63000</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="2">
-        <v>45997</v>
-      </c>
-      <c r="D37">
-        <v>250700</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="2">
-        <v>45993</v>
-      </c>
-      <c r="D38">
-        <v>80000</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45992</v>
-      </c>
-      <c r="D39">
-        <v>82000</v>
-      </c>
-      <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnmorales\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -34,9 +39,18 @@
     <t>ALISO</t>
   </si>
   <si>
+    <t>ARROZ PAISA SUBA</t>
+  </si>
+  <si>
     <t>CAMILIN</t>
   </si>
   <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE ZIPAUIRA</t>
+  </si>
+  <si>
     <t>CARNILANDIA</t>
   </si>
   <si>
@@ -58,9 +72,6 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
-    <t>EL RES</t>
-  </si>
-  <si>
     <t>EL RUBY</t>
   </si>
   <si>
@@ -70,6 +81,12 @@
     <t>LA SELECTA</t>
   </si>
   <si>
+    <t>LOS PAISANOS</t>
+  </si>
+  <si>
+    <t>MERKA FRUVER ALEJANDRO</t>
+  </si>
+  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
@@ -82,15 +99,9 @@
     <t>PARAÍSO FUNZA</t>
   </si>
   <si>
-    <t>PARAÍSO MOSQUERA</t>
-  </si>
-  <si>
     <t>PINILLA</t>
   </si>
   <si>
-    <t>PINILLA SOACHA</t>
-  </si>
-  <si>
     <t>PLAZA JESSICA</t>
   </si>
   <si>
@@ -103,23 +114,35 @@
     <t>SANDRA 20 DE JULIO</t>
   </si>
   <si>
-    <t>SANTANDER MADRID</t>
-  </si>
-  <si>
     <t>SANTANDER SUR</t>
   </si>
   <si>
     <t>VNZLNO PUNTA ANCA</t>
+  </si>
+  <si>
+    <t>El CEBU</t>
+  </si>
+  <si>
+    <t>MULTICARNEA</t>
+  </si>
+  <si>
+    <t>PARAÍSO MOSQUERQ</t>
+  </si>
+  <si>
+    <t>PLACITA MADRILEÑA</t>
+  </si>
+  <si>
+    <t>SAMY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,11 +206,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +292,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +327,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,14 +503,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -511,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="D3">
         <v>166000</v>
@@ -528,7 +567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -536,16 +575,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46000</v>
+        <v>45997</v>
       </c>
       <c r="D4">
-        <v>436000</v>
+        <v>166000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -553,16 +592,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>45959</v>
+        <v>46002</v>
       </c>
       <c r="D5">
-        <v>200000</v>
+        <v>540000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -570,16 +609,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="D6">
-        <v>473300</v>
+        <v>681800</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -590,13 +629,13 @@
         <v>46000</v>
       </c>
       <c r="D7">
-        <v>92000</v>
+        <v>436000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -604,16 +643,16 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="D8">
-        <v>170000</v>
+        <v>499000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -621,16 +660,16 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45921</v>
+        <v>46000</v>
       </c>
       <c r="D9">
-        <v>200000</v>
+        <v>473300</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -638,16 +677,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45947</v>
+        <v>46000</v>
       </c>
       <c r="D10">
-        <v>100000</v>
+        <v>92000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -655,313 +694,313 @@
         <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>45997</v>
+        <v>46003</v>
       </c>
       <c r="D11">
-        <v>240000</v>
+        <v>170000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>45992</v>
+        <v>45998</v>
       </c>
       <c r="D12">
-        <v>85100</v>
+        <v>170000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>45996</v>
+        <v>45921</v>
       </c>
       <c r="D13">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45912</v>
+        <v>45947</v>
       </c>
       <c r="D14">
-        <v>82000</v>
+        <v>100000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C15" s="2">
-        <v>45995</v>
+        <v>45947</v>
       </c>
       <c r="D15">
-        <v>339000</v>
+        <v>181800</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45988</v>
+        <v>45992</v>
       </c>
       <c r="D16">
-        <v>115400</v>
+        <v>85100</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="D17">
-        <v>164000</v>
+        <v>20000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="D18">
-        <v>229000</v>
+        <v>600400</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>45971</v>
+        <v>45912</v>
       </c>
       <c r="D19">
-        <v>83000</v>
+        <v>82000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="D20">
-        <v>202000</v>
+        <v>262500</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="D21">
-        <v>354900</v>
+        <v>388100</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>45924</v>
+        <v>45995</v>
       </c>
       <c r="D22">
-        <v>16000</v>
+        <v>339000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>45931</v>
+        <v>45988</v>
       </c>
       <c r="D23">
-        <v>166000</v>
+        <v>15400</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
-        <v>45993</v>
+        <v>46003</v>
       </c>
       <c r="D24">
-        <v>129000</v>
+        <v>912400</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="D25">
-        <v>971300</v>
+        <v>229000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <v>46000</v>
       </c>
       <c r="D26">
-        <v>1238000</v>
+        <v>164000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
-        <v>45995</v>
+        <v>45971</v>
       </c>
       <c r="D27">
-        <v>224000</v>
+        <v>83000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="D28">
-        <v>7600</v>
+        <v>202000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C29" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="D29">
         <v>300000</v>
@@ -970,71 +1009,207 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>45996</v>
+        <v>45924</v>
       </c>
       <c r="D30">
-        <v>63000</v>
+        <v>16000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
-        <v>45997</v>
+        <v>45931</v>
       </c>
       <c r="D31">
-        <v>250700</v>
+        <v>166000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C32" s="2">
-        <v>45993</v>
+        <v>46003</v>
       </c>
       <c r="D32">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D33">
+        <v>1238000</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45999</v>
+      </c>
+      <c r="D34">
+        <v>971300</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2">
+        <v>46002</v>
+      </c>
+      <c r="D35">
+        <v>664000</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D36">
+        <v>7600</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D37">
+        <v>92300</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D38">
+        <v>300000</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C39" s="2">
+        <v>45993</v>
+      </c>
+      <c r="D39">
+        <v>80000</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45997</v>
+      </c>
+      <c r="D40">
+        <v>250700</v>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2">
         <v>45992</v>
       </c>
-      <c r="D33">
+      <c r="D41">
         <v>82000</v>
       </c>
-      <c r="E33" t="b">
+      <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -36,18 +36,12 @@
     <t>Pagado</t>
   </si>
   <si>
-    <t>ALISO</t>
-  </si>
-  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
     <t>CAMILIN</t>
   </si>
   <si>
-    <t>CAMPO VERDE TOCANCIPA</t>
-  </si>
-  <si>
     <t>CAMPO VERDE ZIPAUIRA</t>
   </si>
   <si>
@@ -72,24 +66,30 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
+    <t>EL CEBU</t>
+  </si>
+  <si>
     <t>EL RUBY</t>
   </si>
   <si>
     <t>FRANCO</t>
   </si>
   <si>
+    <t>FRESIA</t>
+  </si>
+  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>LOS PAISANOS</t>
-  </si>
-  <si>
     <t>MERKA FRUVER ALEJANDRO</t>
   </si>
   <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
+    <t>MULTICARNEA</t>
+  </si>
+  <si>
     <t>NEVADA</t>
   </si>
   <si>
@@ -99,9 +99,15 @@
     <t>PARAÍSO FUNZA</t>
   </si>
   <si>
+    <t>PARAÍSO MOSQUERQ</t>
+  </si>
+  <si>
     <t>PINILLA</t>
   </si>
   <si>
+    <t>PLACITA MADRILEÑA</t>
+  </si>
+  <si>
     <t>PLAZA JESSICA</t>
   </si>
   <si>
@@ -120,19 +126,10 @@
     <t>VNZLNO PUNTA ANCA</t>
   </si>
   <si>
-    <t>El CEBU</t>
-  </si>
-  <si>
-    <t>MULTICARNEA</t>
-  </si>
-  <si>
-    <t>PARAÍSO MOSQUERQ</t>
-  </si>
-  <si>
-    <t>PLACITA MADRILEÑA</t>
-  </si>
-  <si>
-    <t>SAMY</t>
+    <t>FRIGOSOACHA</t>
+  </si>
+  <si>
+    <t>WILINTONG</t>
   </si>
 </sst>
 </file>
@@ -504,15 +501,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -541,10 +538,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>45996</v>
+        <v>46001</v>
       </c>
       <c r="D2">
-        <v>196000</v>
+        <v>166000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -558,7 +555,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46001</v>
+        <v>45997</v>
       </c>
       <c r="D3">
         <v>166000</v>
@@ -575,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="D4">
-        <v>166000</v>
+        <v>681800</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -592,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="D5">
-        <v>540000</v>
+        <v>236000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -609,10 +606,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="D6">
-        <v>681800</v>
+        <v>499000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -629,7 +626,7 @@
         <v>46000</v>
       </c>
       <c r="D7">
-        <v>436000</v>
+        <v>473300</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -643,10 +640,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46001</v>
+        <v>46000</v>
       </c>
       <c r="D8">
-        <v>499000</v>
+        <v>92000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -660,10 +657,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="D9">
-        <v>473300</v>
+        <v>170000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -674,13 +671,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>46000</v>
+        <v>46003</v>
       </c>
       <c r="D10">
-        <v>92000</v>
+        <v>170000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -691,13 +688,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>46003</v>
+        <v>45921</v>
       </c>
       <c r="D11">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -711,10 +708,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>45998</v>
+        <v>45947</v>
       </c>
       <c r="D12">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -728,10 +725,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>45921</v>
+        <v>45947</v>
       </c>
       <c r="D13">
-        <v>200000</v>
+        <v>181800</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -745,10 +742,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45947</v>
+        <v>45992</v>
       </c>
       <c r="D14">
-        <v>100000</v>
+        <v>85100</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -759,13 +756,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45947</v>
+        <v>45996</v>
       </c>
       <c r="D15">
-        <v>181800</v>
+        <v>20000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -779,10 +776,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45992</v>
+        <v>46003</v>
       </c>
       <c r="D16">
-        <v>85100</v>
+        <v>600400</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -796,10 +793,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>45996</v>
+        <v>46006</v>
       </c>
       <c r="D17">
-        <v>20000</v>
+        <v>248000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -810,13 +807,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>46003</v>
+        <v>45912</v>
       </c>
       <c r="D18">
-        <v>600400</v>
+        <v>82000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -827,13 +824,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>45912</v>
+        <v>46002</v>
       </c>
       <c r="D19">
-        <v>82000</v>
+        <v>388100</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -844,13 +841,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>46002</v>
+        <v>45995</v>
       </c>
       <c r="D20">
-        <v>262500</v>
+        <v>339000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -864,10 +861,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46002</v>
+        <v>45988</v>
       </c>
       <c r="D21">
-        <v>388100</v>
+        <v>15400</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -881,10 +878,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>45995</v>
+        <v>46003</v>
       </c>
       <c r="D22">
-        <v>339000</v>
+        <v>912400</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -895,13 +892,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>45988</v>
+        <v>45996</v>
       </c>
       <c r="D23">
-        <v>15400</v>
+        <v>229000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -912,13 +909,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>46003</v>
+        <v>46000</v>
       </c>
       <c r="D24">
-        <v>912400</v>
+        <v>164000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -929,13 +926,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>45996</v>
+        <v>45971</v>
       </c>
       <c r="D25">
-        <v>229000</v>
+        <v>33000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -946,13 +943,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="D26">
-        <v>164000</v>
+        <v>202000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -963,13 +960,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>45971</v>
+        <v>46003</v>
       </c>
       <c r="D27">
-        <v>83000</v>
+        <v>300000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -980,13 +977,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>45996</v>
+        <v>45924</v>
       </c>
       <c r="D28">
-        <v>202000</v>
+        <v>16000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -997,13 +994,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C29" s="2">
-        <v>46003</v>
+        <v>45931</v>
       </c>
       <c r="D29">
-        <v>300000</v>
+        <v>166000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1014,13 +1011,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" s="2">
-        <v>45924</v>
+        <v>46003</v>
       </c>
       <c r="D30">
-        <v>16000</v>
+        <v>100000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1031,13 +1028,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2">
-        <v>45931</v>
+        <v>46004</v>
       </c>
       <c r="D31">
-        <v>166000</v>
+        <v>1705000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1048,13 +1045,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C32" s="2">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="D32">
-        <v>100000</v>
+        <v>664000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1065,13 +1062,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C33" s="2">
         <v>46000</v>
       </c>
       <c r="D33">
-        <v>1238000</v>
+        <v>7600</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1082,13 +1079,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C34" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="D34">
-        <v>971300</v>
+        <v>300000</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1099,13 +1096,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" s="2">
-        <v>46002</v>
+        <v>46006</v>
       </c>
       <c r="D35">
-        <v>664000</v>
+        <v>326700</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1116,13 +1113,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C36" s="2">
-        <v>46000</v>
+        <v>45992</v>
       </c>
       <c r="D36">
-        <v>7600</v>
+        <v>82000</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1133,13 +1130,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C37" s="2">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="D37">
-        <v>92300</v>
+        <v>229200</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1150,66 +1147,15 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
-        <v>46000</v>
+        <v>46006</v>
       </c>
       <c r="D38">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="2">
-        <v>45993</v>
-      </c>
-      <c r="D39">
-        <v>80000</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="2">
-        <v>45997</v>
-      </c>
-      <c r="D40">
-        <v>250700</v>
-      </c>
-      <c r="E40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="2">
-        <v>45992</v>
-      </c>
-      <c r="D41">
-        <v>82000</v>
-      </c>
-      <c r="E41" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -42,9 +42,6 @@
     <t>CAMILIN</t>
   </si>
   <si>
-    <t>CAMPO VERDE ZIPAUIRA</t>
-  </si>
-  <si>
     <t>CARNILANDIA</t>
   </si>
   <si>
@@ -78,6 +75,9 @@
     <t>FRESIA</t>
   </si>
   <si>
+    <t>FRIGOSOACHA</t>
+  </si>
+  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
@@ -99,9 +99,6 @@
     <t>PARAÍSO FUNZA</t>
   </si>
   <si>
-    <t>PARAÍSO MOSQUERQ</t>
-  </si>
-  <si>
     <t>PINILLA</t>
   </si>
   <si>
@@ -126,10 +123,13 @@
     <t>VNZLNO PUNTA ANCA</t>
   </si>
   <si>
-    <t>FRIGOSOACHA</t>
-  </si>
-  <si>
     <t>WILINTONG</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE ZIPAQUIRA</t>
+  </si>
+  <si>
+    <t>PARAÍSO MOSQUERA</t>
   </si>
 </sst>
 </file>
@@ -503,14 +503,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -569,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2">
         <v>46002</v>
@@ -586,7 +585,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>46004</v>
@@ -603,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>46001</v>
@@ -620,7 +619,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
         <v>46000</v>
@@ -637,7 +636,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>46000</v>
@@ -654,7 +653,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>45998</v>
@@ -671,7 +670,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>46003</v>
@@ -688,7 +687,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>45921</v>
@@ -705,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>45947</v>
@@ -722,7 +721,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -739,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>45992</v>
@@ -756,7 +755,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
         <v>45996</v>
@@ -773,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
         <v>46003</v>
@@ -790,7 +789,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
         <v>46006</v>
@@ -807,13 +806,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45912</v>
+        <v>46006</v>
       </c>
       <c r="D18">
-        <v>82000</v>
+        <v>229200</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -824,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>46002</v>
+        <v>45912</v>
       </c>
       <c r="D19">
-        <v>388100</v>
+        <v>82000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -841,13 +840,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45995</v>
+        <v>46002</v>
       </c>
       <c r="D20">
-        <v>339000</v>
+        <v>388100</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -861,10 +860,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="D21">
-        <v>15400</v>
+        <v>339000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -875,13 +874,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>46003</v>
+        <v>45988</v>
       </c>
       <c r="D22">
-        <v>912400</v>
+        <v>15400</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -892,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="D23">
-        <v>229000</v>
+        <v>912400</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -912,10 +911,10 @@
         <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="D24">
-        <v>164000</v>
+        <v>229000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -926,13 +925,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>45971</v>
+        <v>46000</v>
       </c>
       <c r="D25">
-        <v>33000</v>
+        <v>164000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -943,13 +942,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2">
-        <v>45996</v>
+        <v>45971</v>
       </c>
       <c r="D26">
-        <v>202000</v>
+        <v>33000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -960,13 +959,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27" s="2">
-        <v>46003</v>
+        <v>45996</v>
       </c>
       <c r="D27">
-        <v>300000</v>
+        <v>202000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -977,13 +976,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
-        <v>45924</v>
+        <v>46003</v>
       </c>
       <c r="D28">
-        <v>16000</v>
+        <v>300000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -994,13 +993,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>45931</v>
+        <v>45924</v>
       </c>
       <c r="D29">
-        <v>166000</v>
+        <v>16000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1011,13 +1010,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
-        <v>46003</v>
+        <v>45931</v>
       </c>
       <c r="D30">
-        <v>100000</v>
+        <v>166000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1028,13 +1027,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="D31">
-        <v>1705000</v>
+        <v>100000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1045,13 +1044,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <v>46002</v>
+        <v>46004</v>
       </c>
       <c r="D32">
-        <v>664000</v>
+        <v>1705000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1062,13 +1061,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="D33">
-        <v>7600</v>
+        <v>664000</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1079,13 +1078,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2">
         <v>46000</v>
       </c>
       <c r="D34">
-        <v>300000</v>
+        <v>7600</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1096,13 +1095,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="D35">
-        <v>326700</v>
+        <v>300000</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1113,13 +1112,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2">
-        <v>45992</v>
+        <v>46006</v>
       </c>
       <c r="D36">
-        <v>82000</v>
+        <v>326700</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1130,13 +1129,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
-        <v>46006</v>
+        <v>45992</v>
       </c>
       <c r="D37">
-        <v>229200</v>
+        <v>82000</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
@@ -1147,7 +1146,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2">
         <v>46006</v>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -51,9 +51,6 @@
     <t>CIMARRON DORADO</t>
   </si>
   <si>
-    <t>CLIENTE PAOLA</t>
-  </si>
-  <si>
     <t>COCINA CHINA</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>NOVILLON SAN MATEO</t>
   </si>
   <si>
-    <t>PARAÍSO FUNZA</t>
-  </si>
-  <si>
     <t>PINILLA</t>
   </si>
   <si>
@@ -108,9 +102,6 @@
     <t>PLAZA JESSICA</t>
   </si>
   <si>
-    <t>PORTAL ZIPA</t>
-  </si>
-  <si>
     <t>PUNTA DE ANCA</t>
   </si>
   <si>
@@ -130,6 +121,15 @@
   </si>
   <si>
     <t>PARAÍSO MOSQUERA</t>
+  </si>
+  <si>
+    <t>la pampa</t>
+  </si>
+  <si>
+    <t>samy 2</t>
+  </si>
+  <si>
+    <t>carnes johana</t>
   </si>
 </sst>
 </file>
@@ -501,15 +501,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -568,7 +569,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2">
         <v>46002</v>
@@ -636,13 +637,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
-        <v>46000</v>
+        <v>46006</v>
       </c>
       <c r="D8">
-        <v>92000</v>
+        <v>142300</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -653,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>45998</v>
@@ -670,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>46003</v>
@@ -687,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>45921</v>
@@ -704,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <v>45947</v>
@@ -721,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -738,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <v>45992</v>
@@ -755,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>45996</v>
@@ -769,16 +770,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>46003</v>
+        <v>46006</v>
       </c>
       <c r="D16">
-        <v>600400</v>
+        <v>248000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -786,7 +787,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -795,7 +796,7 @@
         <v>46006</v>
       </c>
       <c r="D17">
-        <v>248000</v>
+        <v>229200</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -803,16 +804,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>46006</v>
+        <v>45912</v>
       </c>
       <c r="D18">
-        <v>229200</v>
+        <v>82000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -820,16 +821,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>45912</v>
+        <v>46002</v>
       </c>
       <c r="D19">
-        <v>82000</v>
+        <v>388100</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -837,16 +838,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>46002</v>
+        <v>45995</v>
       </c>
       <c r="D20">
-        <v>388100</v>
+        <v>339000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -854,16 +855,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
       <c r="C21" s="2">
-        <v>45995</v>
+        <v>45988</v>
       </c>
       <c r="D21">
-        <v>339000</v>
+        <v>15400</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -871,16 +872,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <v>45988</v>
+        <v>46003</v>
       </c>
       <c r="D22">
-        <v>15400</v>
+        <v>912400</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -888,16 +889,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="2">
-        <v>46003</v>
+        <v>45996</v>
       </c>
       <c r="D23">
-        <v>912400</v>
+        <v>229000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -905,16 +906,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="D24">
-        <v>229000</v>
+        <v>164000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -922,16 +923,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>46000</v>
+        <v>45971</v>
       </c>
       <c r="D25">
-        <v>164000</v>
+        <v>33000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -939,16 +940,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2">
-        <v>45971</v>
+        <v>46006</v>
       </c>
       <c r="D26">
-        <v>33000</v>
+        <v>394000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -956,16 +957,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
-        <v>45996</v>
+        <v>45931</v>
       </c>
       <c r="D27">
-        <v>202000</v>
+        <v>82000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -973,16 +974,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
         <v>46003</v>
       </c>
       <c r="D28">
-        <v>300000</v>
+        <v>100000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -990,16 +991,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <v>45924</v>
+        <v>46004</v>
       </c>
       <c r="D29">
-        <v>16000</v>
+        <v>1705000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1007,16 +1008,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2">
-        <v>45931</v>
+        <v>46000</v>
       </c>
       <c r="D30">
-        <v>166000</v>
+        <v>7600</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1024,16 +1025,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
-        <v>46003</v>
+        <v>46000</v>
       </c>
       <c r="D31">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1041,16 +1042,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2">
-        <v>46004</v>
+        <v>46006</v>
       </c>
       <c r="D32">
-        <v>1705000</v>
+        <v>326700</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1058,16 +1059,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
-        <v>46002</v>
+        <v>45992</v>
       </c>
       <c r="D33">
-        <v>664000</v>
+        <v>82000</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1075,16 +1076,16 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
-        <v>46000</v>
+        <v>46006</v>
       </c>
       <c r="D34">
-        <v>7600</v>
+        <v>150000</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1092,16 +1093,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
       <c r="C35" s="2">
-        <v>46000</v>
+        <v>46006</v>
       </c>
       <c r="D35">
-        <v>300000</v>
+        <v>229900</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1109,52 +1110,18 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>37</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>32</v>
       </c>
       <c r="C36" s="2">
         <v>46006</v>
       </c>
       <c r="D36">
-        <v>326700</v>
+        <v>83000</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="2">
-        <v>45992</v>
-      </c>
-      <c r="D37">
-        <v>82000</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D38">
-        <v>150000</v>
-      </c>
-      <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnmorales\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -42,6 +37,12 @@
     <t>CAMILIN</t>
   </si>
   <si>
+    <t>CAMPO VERDE ZIPAQUIRA</t>
+  </si>
+  <si>
+    <t>CARNES JOHANA</t>
+  </si>
+  <si>
     <t>CARNILANDIA</t>
   </si>
   <si>
@@ -75,6 +76,9 @@
     <t>FRIGOSOACHA</t>
   </si>
   <si>
+    <t>LA PAMPA</t>
+  </si>
+  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
@@ -93,6 +97,9 @@
     <t>NOVILLON SAN MATEO</t>
   </si>
   <si>
+    <t>PARAÍSO MOSQUERA</t>
+  </si>
+  <si>
     <t>PINILLA</t>
   </si>
   <si>
@@ -105,6 +112,9 @@
     <t>PUNTA DE ANCA</t>
   </si>
   <si>
+    <t>SAMY 2</t>
+  </si>
+  <si>
     <t>SANDRA 20 DE JULIO</t>
   </si>
   <si>
@@ -117,29 +127,17 @@
     <t>WILINTONG</t>
   </si>
   <si>
-    <t>CAMPO VERDE ZIPAQUIRA</t>
-  </si>
-  <si>
-    <t>PARAÍSO MOSQUERA</t>
-  </si>
-  <si>
-    <t>la pampa</t>
-  </si>
-  <si>
-    <t>samy 2</t>
-  </si>
-  <si>
-    <t>carnes johana</t>
+    <t>ABC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,19 +201,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,10 +279,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -324,7 +313,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -500,20 +488,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -547,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -564,12 +546,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>46002</v>
@@ -581,83 +563,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46004</v>
+        <v>46006</v>
       </c>
       <c r="D5">
-        <v>236000</v>
+        <v>142300</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="D6">
-        <v>499000</v>
+        <v>236000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="D7">
-        <v>473300</v>
+        <v>499000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="D8">
-        <v>142300</v>
+        <v>473300</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="D9">
         <v>170000</v>
@@ -666,15 +648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>46003</v>
+        <v>45998</v>
       </c>
       <c r="D10">
         <v>170000</v>
@@ -683,12 +665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>45921</v>
@@ -700,12 +682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>45947</v>
@@ -717,12 +699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -734,12 +716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>45992</v>
@@ -751,12 +733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>45996</v>
@@ -768,12 +750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>46006</v>
@@ -785,12 +767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>46006</v>
@@ -802,63 +784,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D18">
+        <v>229900</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
         <v>45912</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>82000</v>
       </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
         <v>46002</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>388100</v>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45995</v>
-      </c>
-      <c r="D20">
-        <v>339000</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21</v>
-      </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
         <v>45988</v>
@@ -870,258 +852,275 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>45995</v>
+      </c>
+      <c r="D22">
+        <v>339000</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2">
         <v>46003</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>912400</v>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="2">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="2">
         <v>45996</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>229000</v>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
         <v>46000</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>164000</v>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="2">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
         <v>45971</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>33000</v>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>27</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="2">
+      <c r="C27" s="2">
         <v>46006</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>394000</v>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D28">
+        <v>82000</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>29</v>
       </c>
-      <c r="B27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45931</v>
-      </c>
-      <c r="D27">
-        <v>82000</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C29" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2">
-        <v>46003</v>
-      </c>
-      <c r="D28">
-        <v>100000</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="C30" s="2">
+        <v>46004</v>
+      </c>
+      <c r="D30">
+        <v>1705000</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2">
-        <v>46004</v>
-      </c>
-      <c r="D29">
-        <v>1705000</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2">
-        <v>46000</v>
-      </c>
-      <c r="D30">
-        <v>7600</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>28</v>
       </c>
       <c r="C31" s="2">
         <v>46000</v>
       </c>
       <c r="D31">
-        <v>300000</v>
+        <v>7600</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C32" s="2">
         <v>46006</v>
       </c>
       <c r="D32">
-        <v>326700</v>
+        <v>83000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="D33">
-        <v>82000</v>
+        <v>300000</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C34" s="2">
         <v>46006</v>
       </c>
       <c r="D34">
-        <v>150000</v>
+        <v>326700</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>46006</v>
+        <v>45992</v>
       </c>
       <c r="D35">
-        <v>229900</v>
+        <v>82000</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2">
         <v>46006</v>
       </c>
       <c r="D36">
-        <v>83000</v>
+        <v>150000</v>
       </c>
       <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D37">
+        <v>123456</v>
+      </c>
+      <c r="E37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Pagado</t>
   </si>
   <si>
+    <t>ABC</t>
+  </si>
+  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>WILINTONG</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -520,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46001</v>
+        <v>46006</v>
       </c>
       <c r="D2">
-        <v>166000</v>
+        <v>123456</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>45997</v>
+        <v>46001</v>
       </c>
       <c r="D3">
         <v>166000</v>
@@ -554,10 +554,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="D4">
-        <v>681800</v>
+        <v>166000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -571,10 +571,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46006</v>
+        <v>46002</v>
       </c>
       <c r="D5">
-        <v>142300</v>
+        <v>681800</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46004</v>
+        <v>46006</v>
       </c>
       <c r="D6">
-        <v>236000</v>
+        <v>142300</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -605,10 +605,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46001</v>
+        <v>46004</v>
       </c>
       <c r="D7">
-        <v>499000</v>
+        <v>236000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -622,10 +622,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="D8">
-        <v>473300</v>
+        <v>499000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -639,10 +639,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>46003</v>
+        <v>46000</v>
       </c>
       <c r="D9">
-        <v>170000</v>
+        <v>473300</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -653,10 +653,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="D10">
         <v>170000</v>
@@ -673,10 +673,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>45921</v>
+        <v>45998</v>
       </c>
       <c r="D11">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>45947</v>
+        <v>45921</v>
       </c>
       <c r="D12">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>45947</v>
       </c>
       <c r="D13">
-        <v>181800</v>
+        <v>100000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45992</v>
+        <v>45947</v>
       </c>
       <c r="D14">
-        <v>85100</v>
+        <v>181800</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="D15">
-        <v>20000</v>
+        <v>85100</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>46006</v>
+        <v>45996</v>
       </c>
       <c r="D16">
-        <v>248000</v>
+        <v>20000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -778,7 +778,7 @@
         <v>46006</v>
       </c>
       <c r="D17">
-        <v>229200</v>
+        <v>248000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>46006</v>
       </c>
       <c r="D18">
-        <v>229900</v>
+        <v>229200</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>45912</v>
+        <v>46006</v>
       </c>
       <c r="D19">
-        <v>82000</v>
+        <v>229900</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>46002</v>
+        <v>45912</v>
       </c>
       <c r="D20">
-        <v>388100</v>
+        <v>82000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -843,10 +843,10 @@
         <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>45988</v>
+        <v>46002</v>
       </c>
       <c r="D21">
-        <v>15400</v>
+        <v>388100</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -857,13 +857,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22" s="2">
-        <v>45995</v>
+        <v>45988</v>
       </c>
       <c r="D22">
-        <v>339000</v>
+        <v>15400</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>46003</v>
+        <v>45995</v>
       </c>
       <c r="D23">
-        <v>912400</v>
+        <v>339000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -894,10 +894,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>45996</v>
+        <v>46003</v>
       </c>
       <c r="D24">
-        <v>229000</v>
+        <v>912400</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="D25">
-        <v>164000</v>
+        <v>229000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -928,10 +928,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>45971</v>
+        <v>46000</v>
       </c>
       <c r="D26">
-        <v>33000</v>
+        <v>164000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>46006</v>
+        <v>45971</v>
       </c>
       <c r="D27">
-        <v>394000</v>
+        <v>33000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>45931</v>
+        <v>46006</v>
       </c>
       <c r="D28">
-        <v>82000</v>
+        <v>394000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -979,10 +979,10 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>46003</v>
+        <v>45931</v>
       </c>
       <c r="D29">
-        <v>100000</v>
+        <v>82000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="D30">
-        <v>1705000</v>
+        <v>100000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1013,10 +1013,10 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>46000</v>
+        <v>46004</v>
       </c>
       <c r="D31">
-        <v>7600</v>
+        <v>1705000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1030,10 +1030,10 @@
         <v>32</v>
       </c>
       <c r="C32" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="D32">
-        <v>83000</v>
+        <v>7600</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>33</v>
       </c>
       <c r="C33" s="2">
-        <v>46000</v>
+        <v>46006</v>
       </c>
       <c r="D33">
-        <v>300000</v>
+        <v>83000</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1064,10 +1064,10 @@
         <v>34</v>
       </c>
       <c r="C34" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="D34">
-        <v>326700</v>
+        <v>300000</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>35</v>
       </c>
       <c r="C35" s="2">
-        <v>45992</v>
+        <v>46006</v>
       </c>
       <c r="D35">
-        <v>82000</v>
+        <v>326700</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>36</v>
       </c>
       <c r="C36" s="2">
-        <v>46006</v>
+        <v>45992</v>
       </c>
       <c r="D36">
-        <v>150000</v>
+        <v>82000</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -1118,9 +1118,26 @@
         <v>46006</v>
       </c>
       <c r="D37">
+        <v>150000</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D38">
         <v>123456</v>
       </c>
-      <c r="E37" t="b">
+      <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>46003</v>
+        <v>45998</v>
       </c>
       <c r="D10">
         <v>170000</v>
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="D11">
         <v>170000</v>
@@ -1121,23 +1121,6 @@
         <v>150000</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D38">
-        <v>123456</v>
-      </c>
-      <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="D10">
         <v>170000</v>
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>46003</v>
+        <v>45998</v>
       </c>
       <c r="D11">
         <v>170000</v>
@@ -1121,6 +1121,23 @@
         <v>150000</v>
       </c>
       <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D38">
+        <v>789456</v>
+      </c>
+      <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -489,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>46003</v>
+        <v>45998</v>
       </c>
       <c r="D10">
         <v>170000</v>
@@ -673,7 +673,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>45998</v>
+        <v>46003</v>
       </c>
       <c r="D11">
         <v>170000</v>
@@ -1121,23 +1121,6 @@
         <v>150000</v>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D38">
-        <v>789456</v>
-      </c>
-      <c r="E38" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lnmorales\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,9 +36,6 @@
     <t>Pagado</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
@@ -43,15 +45,6 @@
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
-    <t>CARNES JOHANA</t>
-  </si>
-  <si>
-    <t>CARNILANDIA</t>
-  </si>
-  <si>
-    <t>CARNIVOROS</t>
-  </si>
-  <si>
     <t>CIMARRON DORADO</t>
   </si>
   <si>
@@ -85,15 +78,9 @@
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>MERKA FRUVER ALEJANDRO</t>
-  </si>
-  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
-    <t>MULTICARNEA</t>
-  </si>
-  <si>
     <t>NEVADA</t>
   </si>
   <si>
@@ -128,16 +115,22 @@
   </si>
   <si>
     <t>WILINTONG</t>
+  </si>
+  <si>
+    <t>arangos 1</t>
+  </si>
+  <si>
+    <t>canton wok</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,11 +194,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -247,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +280,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +315,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,14 +491,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,32 +521,32 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="D2">
-        <v>123456</v>
+        <v>166000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="D3">
         <v>166000</v>
@@ -546,12 +555,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>45997</v>
@@ -563,364 +572,364 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
         <v>46002</v>
       </c>
       <c r="D5">
-        <v>681800</v>
+        <v>141800</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="D6">
-        <v>142300</v>
+        <v>60000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>46004</v>
+        <v>46000</v>
       </c>
       <c r="D7">
-        <v>236000</v>
+        <v>473300</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>46001</v>
+        <v>46008</v>
       </c>
       <c r="D8">
-        <v>499000</v>
+        <v>170000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>46000</v>
+        <v>45921</v>
       </c>
       <c r="D9">
-        <v>473300</v>
+        <v>200000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>45998</v>
+        <v>45947</v>
       </c>
       <c r="D10">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
-        <v>46003</v>
+        <v>45947</v>
       </c>
       <c r="D11">
-        <v>170000</v>
+        <v>181800</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>45921</v>
+        <v>45992</v>
       </c>
       <c r="D12">
-        <v>200000</v>
+        <v>85100</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>45947</v>
+        <v>45996</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>45947</v>
+        <v>46006</v>
       </c>
       <c r="D14">
-        <v>181800</v>
+        <v>248000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45992</v>
+        <v>46006</v>
       </c>
       <c r="D15">
-        <v>85100</v>
+        <v>229200</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45996</v>
+        <v>46006</v>
       </c>
       <c r="D16">
-        <v>20000</v>
+        <v>229900</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>46006</v>
+        <v>45912</v>
       </c>
       <c r="D17">
-        <v>248000</v>
+        <v>82000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>46006</v>
+        <v>45988</v>
       </c>
       <c r="D18">
-        <v>229200</v>
+        <v>15400</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>46006</v>
+        <v>45995</v>
       </c>
       <c r="D19">
-        <v>229900</v>
+        <v>339000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45912</v>
+        <v>46006</v>
       </c>
       <c r="D20">
-        <v>82000</v>
+        <v>148700</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46002</v>
+        <v>45971</v>
       </c>
       <c r="D21">
-        <v>388100</v>
+        <v>33000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>45988</v>
+        <v>46006</v>
       </c>
       <c r="D22">
-        <v>15400</v>
+        <v>394000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>45995</v>
+        <v>45931</v>
       </c>
       <c r="D23">
-        <v>339000</v>
+        <v>82000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
         <v>46003</v>
       </c>
       <c r="D24">
-        <v>912400</v>
+        <v>100000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>45996</v>
+        <v>46004</v>
       </c>
       <c r="D25">
-        <v>229000</v>
+        <v>1705000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -931,13 +940,13 @@
         <v>46000</v>
       </c>
       <c r="D26">
-        <v>164000</v>
+        <v>7600</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -945,16 +954,16 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>45971</v>
+        <v>46006</v>
       </c>
       <c r="D27">
-        <v>33000</v>
+        <v>83000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -962,16 +971,16 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>46006</v>
+        <v>46000</v>
       </c>
       <c r="D28">
-        <v>394000</v>
+        <v>300000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -979,16 +988,16 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>45931</v>
+        <v>46006</v>
       </c>
       <c r="D29">
-        <v>82000</v>
+        <v>56700</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -996,16 +1005,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>46003</v>
+        <v>45992</v>
       </c>
       <c r="D30">
-        <v>100000</v>
+        <v>82000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1013,114 +1022,12 @@
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>46004</v>
+        <v>46006</v>
       </c>
       <c r="D31">
-        <v>1705000</v>
+        <v>150000</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="2">
-        <v>46000</v>
-      </c>
-      <c r="D32">
-        <v>7600</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D33">
-        <v>83000</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="2">
-        <v>46000</v>
-      </c>
-      <c r="D34">
-        <v>300000</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D35">
-        <v>326700</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="2">
-        <v>45992</v>
-      </c>
-      <c r="D36">
-        <v>82000</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D37">
-        <v>150000</v>
-      </c>
-      <c r="E37" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -36,6 +36,9 @@
     <t>Pagado</t>
   </si>
   <si>
+    <t>ARANGOS 1</t>
+  </si>
+  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
+    <t>CANTON WOK</t>
+  </si>
+  <si>
     <t>CIMARRON DORADO</t>
   </si>
   <si>
@@ -117,10 +123,28 @@
     <t>WILINTONG</t>
   </si>
   <si>
-    <t>arangos 1</t>
-  </si>
-  <si>
-    <t>canton wok</t>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
+  </si>
+  <si>
+    <t>CRISTIAN ACACIAS</t>
+  </si>
+  <si>
+    <t>LA 13</t>
+  </si>
+  <si>
+    <t>LOS PAISANOS</t>
+  </si>
+  <si>
+    <t>MERKA FRUVER ALEJANDRO</t>
+  </si>
+  <si>
+    <t>PORTAL ZIPA</t>
+  </si>
+  <si>
+    <t>LOS ANDES PEDRO</t>
   </si>
 </sst>
 </file>
@@ -492,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2">
         <v>46007</v>
@@ -534,8 +558,8 @@
       <c r="D2">
         <v>166000</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -543,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2">
         <v>46008</v>
@@ -551,8 +575,8 @@
       <c r="D3">
         <v>166000</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
         <v>45997</v>
@@ -568,8 +592,8 @@
       <c r="D4">
         <v>166000</v>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -577,16 +601,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2">
-        <v>46002</v>
+        <v>46009</v>
       </c>
       <c r="D5">
-        <v>141800</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
+        <v>540000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -594,16 +618,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
-        <v>46007</v>
+        <v>46009</v>
       </c>
       <c r="D6">
-        <v>60000</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
+        <v>625000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,13 +638,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="D7">
-        <v>473300</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
+        <v>141800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -631,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="D8">
-        <v>170000</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
+        <v>60000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -648,13 +672,13 @@
         <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>45921</v>
+        <v>46000</v>
       </c>
       <c r="D9">
-        <v>200000</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
+        <v>473300</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,13 +689,13 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>45947</v>
+        <v>46008</v>
       </c>
       <c r="D10">
-        <v>100000</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
+        <v>170000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -679,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
-        <v>45947</v>
+        <v>46009</v>
       </c>
       <c r="D11">
-        <v>181800</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
+        <v>1000000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,16 +720,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
-        <v>45992</v>
+        <v>45921</v>
       </c>
       <c r="D12">
-        <v>85100</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
+        <v>200000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -713,16 +737,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
-        <v>45996</v>
+        <v>45947</v>
       </c>
       <c r="D13">
-        <v>20000</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
+        <v>100000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -730,16 +754,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
-        <v>46006</v>
+        <v>45947</v>
       </c>
       <c r="D14">
-        <v>248000</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
+        <v>181800</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,16 +771,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
-        <v>46006</v>
+        <v>45992</v>
       </c>
       <c r="D15">
-        <v>229200</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
+        <v>85100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,16 +788,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>46006</v>
+        <v>45996</v>
       </c>
       <c r="D16">
-        <v>229900</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
+        <v>20000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,16 +805,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>45912</v>
+        <v>46006</v>
       </c>
       <c r="D17">
-        <v>82000</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
+        <v>248000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -798,16 +822,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45988</v>
+        <v>46006</v>
       </c>
       <c r="D18">
-        <v>15400</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
+        <v>229200</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -815,16 +839,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C19" s="2">
-        <v>45995</v>
+        <v>46009</v>
       </c>
       <c r="D19">
-        <v>339000</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
+        <v>239000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,16 +856,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
-        <v>46006</v>
+        <v>46009</v>
       </c>
       <c r="D20">
-        <v>148700</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
+        <v>175000</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -849,16 +873,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <v>45971</v>
+        <v>46006</v>
       </c>
       <c r="D21">
-        <v>33000</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
+        <v>229900</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -866,16 +890,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <v>46006</v>
+        <v>45912</v>
       </c>
       <c r="D22">
-        <v>394000</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
+        <v>82000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -883,16 +907,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
-        <v>45931</v>
+        <v>46009</v>
       </c>
       <c r="D23">
-        <v>82000</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
+        <v>520500</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,16 +924,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
-        <v>46003</v>
+        <v>46009</v>
       </c>
       <c r="D24">
-        <v>100000</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
+        <v>1034200</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -917,16 +941,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2">
-        <v>46004</v>
+        <v>45995</v>
       </c>
       <c r="D25">
-        <v>1705000</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
+        <v>339000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -934,16 +958,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
-        <v>46000</v>
+        <v>45988</v>
       </c>
       <c r="D26">
-        <v>7600</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
+        <v>15400</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -951,16 +975,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <v>46006</v>
       </c>
       <c r="D27">
-        <v>83000</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
+        <v>148700</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -968,16 +992,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2">
-        <v>46000</v>
+        <v>45971</v>
       </c>
       <c r="D28">
-        <v>300000</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
+        <v>33000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -985,16 +1009,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2">
         <v>46006</v>
       </c>
       <c r="D29">
-        <v>56700</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
+        <v>394000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1002,16 +1026,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="D30">
         <v>82000</v>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1019,16 +1043,152 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2">
+        <v>46003</v>
+      </c>
+      <c r="D31">
+        <v>100000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="C31" s="2">
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="2">
+        <v>46004</v>
+      </c>
+      <c r="D32">
+        <v>1705000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="2">
+        <v>46009</v>
+      </c>
+      <c r="D33">
+        <v>830000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D34">
+        <v>207000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2">
         <v>46006</v>
       </c>
-      <c r="D31">
+      <c r="D35">
+        <v>83000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="2">
+        <v>46000</v>
+      </c>
+      <c r="D36">
+        <v>300000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D37">
+        <v>56700</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45992</v>
+      </c>
+      <c r="D38">
+        <v>82000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D39">
         <v>150000</v>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,10 +978,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>46006</v>
+        <v>46010</v>
       </c>
       <c r="D27">
-        <v>148700</v>
+        <v>191000</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
@@ -1012,10 +1012,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="2">
-        <v>46006</v>
+        <v>46010</v>
       </c>
       <c r="D29">
-        <v>394000</v>
+        <v>362700</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -58,9 +58,6 @@
     <t>CIMARRON DORADO</t>
   </si>
   <si>
-    <t>CLIENTE PAOLA</t>
-  </si>
-  <si>
     <t>COCINA CHINA</t>
   </si>
   <si>
@@ -73,18 +70,9 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
-    <t>EL RUBY</t>
-  </si>
-  <si>
     <t>FRANCO</t>
   </si>
   <si>
-    <t>FRESIA</t>
-  </si>
-  <si>
-    <t>LA 13</t>
-  </si>
-  <si>
     <t>LA PAMPA</t>
   </si>
   <si>
@@ -94,6 +82,9 @@
     <t>LOS PAISANOS</t>
   </si>
   <si>
+    <t>MAFE</t>
+  </si>
+  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
@@ -122,9 +113,6 @@
   </si>
   <si>
     <t>SAN JOAQUIN</t>
-  </si>
-  <si>
-    <t>SANDRA 20 DE JULIO</t>
   </si>
   <si>
     <t>SANTANDER SUR</t>
@@ -495,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -614,7 +602,7 @@
         <v>46014</v>
       </c>
       <c r="D7">
-        <v>438900</v>
+        <v>425100</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -713,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>46011</v>
+        <v>46012</v>
       </c>
       <c r="D13">
-        <v>215000</v>
+        <v>170000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -730,10 +718,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>46012</v>
+        <v>46009</v>
       </c>
       <c r="D14">
-        <v>170000</v>
+        <v>1000000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -747,10 +735,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>46009</v>
+        <v>45921</v>
       </c>
       <c r="D15">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -764,10 +752,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45921</v>
+        <v>45947</v>
       </c>
       <c r="D16">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -781,10 +769,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>45947</v>
+        <v>46014</v>
       </c>
       <c r="D17">
-        <v>100000</v>
+        <v>276300</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -795,13 +783,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>45992</v>
+        <v>45996</v>
       </c>
       <c r="D18">
-        <v>85100</v>
+        <v>20000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -812,13 +800,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>46014</v>
+        <v>46006</v>
       </c>
       <c r="D19">
-        <v>276300</v>
+        <v>229900</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -832,10 +820,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45996</v>
+        <v>45912</v>
       </c>
       <c r="D20">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -849,10 +837,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46006</v>
+        <v>46014</v>
       </c>
       <c r="D21">
-        <v>248000</v>
+        <v>382000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -866,10 +854,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>46014</v>
+        <v>46017</v>
       </c>
       <c r="D22">
-        <v>236300</v>
+        <v>190000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -883,10 +871,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>46006</v>
+        <v>45988</v>
       </c>
       <c r="D23">
-        <v>229900</v>
+        <v>15400</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -897,13 +885,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>45912</v>
+        <v>45995</v>
       </c>
       <c r="D24">
-        <v>82000</v>
+        <v>339000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -914,13 +902,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>46014</v>
+        <v>46013</v>
       </c>
       <c r="D25">
-        <v>382000</v>
+        <v>265000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -931,13 +919,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>45995</v>
+        <v>45971</v>
       </c>
       <c r="D26">
-        <v>339000</v>
+        <v>33000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -951,10 +939,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>45988</v>
+        <v>46013</v>
       </c>
       <c r="D27">
-        <v>15400</v>
+        <v>328800</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -968,10 +956,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>46013</v>
+        <v>45931</v>
       </c>
       <c r="D28">
-        <v>265000</v>
+        <v>82000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -985,10 +973,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>45971</v>
+        <v>46015</v>
       </c>
       <c r="D29">
-        <v>33000</v>
+        <v>166000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -1002,10 +990,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="D30">
-        <v>328800</v>
+        <v>1655400</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1019,10 +1007,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>45931</v>
+        <v>46013</v>
       </c>
       <c r="D31">
-        <v>82000</v>
+        <v>137000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1036,10 +1024,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>46015</v>
+        <v>46013</v>
       </c>
       <c r="D32">
-        <v>166000</v>
+        <v>142000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1053,10 +1041,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>46011</v>
+        <v>46015</v>
       </c>
       <c r="D33">
-        <v>1028600</v>
+        <v>229300</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1070,10 +1058,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="D34">
-        <v>137000</v>
+        <v>253000</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -1087,10 +1075,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="2">
-        <v>46013</v>
+        <v>46015</v>
       </c>
       <c r="D35">
-        <v>142000</v>
+        <v>189000</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
@@ -1104,80 +1092,12 @@
         <v>35</v>
       </c>
       <c r="C36" s="2">
-        <v>46015</v>
+        <v>46006</v>
       </c>
       <c r="D36">
-        <v>229300</v>
+        <v>150000</v>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="2">
-        <v>46000</v>
-      </c>
-      <c r="D37">
-        <v>300000</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="2">
-        <v>46014</v>
-      </c>
-      <c r="D38">
-        <v>253000</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" s="2">
-        <v>46015</v>
-      </c>
-      <c r="D39">
-        <v>189000</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D40">
-        <v>150000</v>
-      </c>
-      <c r="E40" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -37,12 +37,6 @@
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
-    <t>CAMILIN</t>
-  </si>
-  <si>
-    <t>CAMPO VERDE TOCANCIPA</t>
-  </si>
-  <si>
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
@@ -52,12 +46,12 @@
     <t>CARNES JOHANA</t>
   </si>
   <si>
-    <t>CARNILANDIA</t>
-  </si>
-  <si>
     <t>CIMARRON DORADO</t>
   </si>
   <si>
+    <t>CLIENTE PAOLA</t>
+  </si>
+  <si>
     <t>COCINA CHINA</t>
   </si>
   <si>
@@ -79,13 +73,13 @@
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>LOS PAISANOS</t>
-  </si>
-  <si>
     <t>MAFE</t>
   </si>
   <si>
     <t>MERKA FRUVER DEXI</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
   </si>
   <si>
     <t>NEVADA</t>
@@ -483,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,10 +542,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>45997</v>
+        <v>46014</v>
       </c>
       <c r="D4">
-        <v>166000</v>
+        <v>71900</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -565,10 +559,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="D5">
-        <v>720000</v>
+        <v>252000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -579,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46009</v>
+        <v>46011</v>
       </c>
       <c r="D6">
-        <v>65000</v>
+        <v>166000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -596,13 +590,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46014</v>
+        <v>46010</v>
       </c>
       <c r="D7">
-        <v>425100</v>
+        <v>375000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -613,13 +607,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>46009</v>
+        <v>46017</v>
       </c>
       <c r="D8">
-        <v>216800</v>
+        <v>315600</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -630,13 +624,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>46015</v>
+        <v>46018</v>
       </c>
       <c r="D9">
-        <v>252000</v>
+        <v>274000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -647,13 +641,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>46011</v>
+        <v>46018</v>
       </c>
       <c r="D10">
-        <v>166000</v>
+        <v>170000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -664,13 +658,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>46013</v>
+        <v>46009</v>
       </c>
       <c r="D11">
-        <v>130000</v>
+        <v>1000000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -681,13 +675,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>46010</v>
+        <v>45921</v>
       </c>
       <c r="D12">
-        <v>375000</v>
+        <v>200000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -698,13 +692,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>46012</v>
+        <v>45947</v>
       </c>
       <c r="D13">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -715,13 +709,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>46009</v>
+        <v>46017</v>
       </c>
       <c r="D14">
-        <v>1000000</v>
+        <v>545800</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -735,10 +729,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45921</v>
+        <v>45996</v>
       </c>
       <c r="D15">
-        <v>200000</v>
+        <v>20000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -752,10 +746,10 @@
         <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45947</v>
+        <v>46006</v>
       </c>
       <c r="D16">
-        <v>100000</v>
+        <v>229900</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -769,10 +763,10 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>46014</v>
+        <v>45912</v>
       </c>
       <c r="D17">
-        <v>276300</v>
+        <v>82000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -783,13 +777,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>45996</v>
+        <v>46017</v>
       </c>
       <c r="D18">
-        <v>20000</v>
+        <v>190000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -800,13 +794,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>46006</v>
+        <v>45988</v>
       </c>
       <c r="D19">
-        <v>229900</v>
+        <v>15400</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -820,10 +814,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45912</v>
+        <v>45995</v>
       </c>
       <c r="D20">
-        <v>82000</v>
+        <v>339000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -837,10 +831,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46014</v>
+        <v>46011</v>
       </c>
       <c r="D21">
-        <v>382000</v>
+        <v>80000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -857,7 +851,7 @@
         <v>46017</v>
       </c>
       <c r="D22">
-        <v>190000</v>
+        <v>195000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -871,10 +865,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>45988</v>
+        <v>45971</v>
       </c>
       <c r="D23">
-        <v>15400</v>
+        <v>33000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -885,13 +879,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>45995</v>
+        <v>46013</v>
       </c>
       <c r="D24">
-        <v>339000</v>
+        <v>328800</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -902,13 +896,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>46013</v>
+        <v>45931</v>
       </c>
       <c r="D25">
-        <v>265000</v>
+        <v>82000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -919,13 +913,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>45971</v>
+        <v>46015</v>
       </c>
       <c r="D26">
-        <v>33000</v>
+        <v>166000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -936,13 +930,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="D27">
-        <v>328800</v>
+        <v>1655400</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -953,13 +947,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>45931</v>
+        <v>46017</v>
       </c>
       <c r="D28">
-        <v>82000</v>
+        <v>507000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -970,13 +964,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>46015</v>
+        <v>46013</v>
       </c>
       <c r="D29">
-        <v>166000</v>
+        <v>142000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -987,13 +981,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="D30">
-        <v>1655400</v>
+        <v>229300</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1004,13 +998,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>46013</v>
+        <v>46014</v>
       </c>
       <c r="D31">
-        <v>137000</v>
+        <v>253000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1024,10 +1018,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>46013</v>
+        <v>46018</v>
       </c>
       <c r="D32">
-        <v>142000</v>
+        <v>218000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1044,7 +1038,7 @@
         <v>46015</v>
       </c>
       <c r="D33">
-        <v>229300</v>
+        <v>189000</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1058,46 +1052,12 @@
         <v>33</v>
       </c>
       <c r="C34" s="2">
-        <v>46014</v>
+        <v>46006</v>
       </c>
       <c r="D34">
-        <v>253000</v>
+        <v>150000</v>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="2">
-        <v>46015</v>
-      </c>
-      <c r="D35">
-        <v>189000</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D36">
-        <v>150000</v>
-      </c>
-      <c r="E36" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,12 +31,12 @@
     <t>Pagado</t>
   </si>
   <si>
-    <t>ALISO</t>
-  </si>
-  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
+  </si>
+  <si>
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
@@ -52,9 +52,6 @@
     <t>CLIENTE PAOLA</t>
   </si>
   <si>
-    <t>COCINA CHINA</t>
-  </si>
-  <si>
     <t>CRISTIAN ACACIAS</t>
   </si>
   <si>
@@ -67,15 +64,27 @@
     <t>FRANCO</t>
   </si>
   <si>
+    <t>LA 13</t>
+  </si>
+  <si>
+    <t>LA CABAÑA</t>
+  </si>
+  <si>
     <t>LA PAMPA</t>
   </si>
   <si>
+    <t>LA PROMESA</t>
+  </si>
+  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
     <t>MAFE</t>
   </si>
   <si>
+    <t>MERKA FRUVER ALEJANDRO</t>
+  </si>
+  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
@@ -85,7 +94,7 @@
     <t>NEVADA</t>
   </si>
   <si>
-    <t>NOVILLON SAN MATEO</t>
+    <t>PARAÍSO FUNZA</t>
   </si>
   <si>
     <t>PARAÍSO MOSQUERA</t>
@@ -94,7 +103,7 @@
     <t>PINILLA</t>
   </si>
   <si>
-    <t>PINILLA SOACHA</t>
+    <t>PLANADAS NUEVO</t>
   </si>
   <si>
     <t>PLAZA JESSICA</t>
@@ -477,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +520,7 @@
         <v>46015</v>
       </c>
       <c r="D2">
-        <v>284000</v>
+        <v>166000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -525,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46015</v>
+        <v>46021</v>
       </c>
       <c r="D3">
-        <v>166000</v>
+        <v>475000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -590,13 +599,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>46010</v>
+        <v>46021</v>
       </c>
       <c r="D7">
-        <v>375000</v>
+        <v>354000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -610,10 +619,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>46017</v>
+        <v>46010</v>
       </c>
       <c r="D8">
-        <v>315600</v>
+        <v>375000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -624,13 +633,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>46018</v>
+        <v>46020</v>
       </c>
       <c r="D9">
-        <v>274000</v>
+        <v>449800</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -641,13 +650,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>46018</v>
       </c>
       <c r="D10">
-        <v>170000</v>
+        <v>174000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -658,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>46009</v>
@@ -675,7 +684,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
         <v>45921</v>
@@ -692,7 +701,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -709,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>46017</v>
@@ -726,7 +735,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>45996</v>
@@ -743,13 +752,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>46006</v>
+        <v>46021</v>
       </c>
       <c r="D16">
-        <v>229900</v>
+        <v>1137000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -760,13 +769,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>45912</v>
+        <v>46020</v>
       </c>
       <c r="D17">
-        <v>82000</v>
+        <v>215300</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -777,13 +786,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="2">
-        <v>46017</v>
+        <v>46006</v>
       </c>
       <c r="D18">
-        <v>190000</v>
+        <v>229900</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -794,13 +803,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>45988</v>
+        <v>46020</v>
       </c>
       <c r="D19">
-        <v>15400</v>
+        <v>151000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -814,10 +823,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45995</v>
+        <v>45912</v>
       </c>
       <c r="D20">
-        <v>339000</v>
+        <v>82000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -831,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46011</v>
+        <v>46017</v>
       </c>
       <c r="D21">
-        <v>80000</v>
+        <v>190000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -848,10 +857,10 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>46017</v>
+        <v>46021</v>
       </c>
       <c r="D22">
-        <v>195000</v>
+        <v>1257600</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -865,10 +874,10 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>45971</v>
+        <v>45995</v>
       </c>
       <c r="D23">
-        <v>33000</v>
+        <v>339000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -879,13 +888,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>46013</v>
+        <v>45988</v>
       </c>
       <c r="D24">
-        <v>328800</v>
+        <v>15400</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -896,13 +905,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>45931</v>
+        <v>46011</v>
       </c>
       <c r="D25">
-        <v>82000</v>
+        <v>80000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -913,13 +922,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="D26">
-        <v>166000</v>
+        <v>195000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -930,13 +939,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>46014</v>
+        <v>46020</v>
       </c>
       <c r="D27">
-        <v>1655400</v>
+        <v>276000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -947,13 +956,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>46017</v>
+        <v>46013</v>
       </c>
       <c r="D28">
-        <v>507000</v>
+        <v>328800</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -964,13 +973,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="2">
-        <v>46013</v>
+        <v>45931</v>
       </c>
       <c r="D29">
-        <v>142000</v>
+        <v>82000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -981,13 +990,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="D30">
-        <v>229300</v>
+        <v>88400</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -998,13 +1007,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
         <v>46014</v>
       </c>
       <c r="D31">
-        <v>253000</v>
+        <v>1655400</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1018,10 +1027,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>46018</v>
+        <v>46017</v>
       </c>
       <c r="D32">
-        <v>218000</v>
+        <v>507000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1035,10 +1044,10 @@
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>46015</v>
+        <v>46020</v>
       </c>
       <c r="D33">
-        <v>189000</v>
+        <v>304000</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
@@ -1049,15 +1058,117 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2">
+        <v>46021</v>
+      </c>
+      <c r="D34">
+        <v>203000</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="2">
+        <v>46013</v>
+      </c>
+      <c r="D35">
+        <v>142000</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C36" s="2">
+        <v>46015</v>
+      </c>
+      <c r="D36">
+        <v>229300</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2">
+        <v>46014</v>
+      </c>
+      <c r="D37">
+        <v>253000</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46018</v>
+      </c>
+      <c r="D38">
+        <v>218000</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="2">
+        <v>46015</v>
+      </c>
+      <c r="D39">
+        <v>189000</v>
+      </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2">
         <v>46006</v>
       </c>
-      <c r="D34">
+      <c r="D40">
         <v>150000</v>
       </c>
-      <c r="E34" t="b">
+      <c r="E40" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Pagado</t>
   </si>
   <si>
+    <t>ALISO</t>
+  </si>
+  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
@@ -61,21 +64,18 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
+    <t>EL JORDAN</t>
+  </si>
+  <si>
     <t>FRANCO</t>
   </si>
   <si>
-    <t>LA 13</t>
-  </si>
-  <si>
     <t>LA CABAÑA</t>
   </si>
   <si>
     <t>LA PAMPA</t>
   </si>
   <si>
-    <t>LA PROMESA</t>
-  </si>
-  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
@@ -106,22 +106,10 @@
     <t>PLANADAS NUEVO</t>
   </si>
   <si>
-    <t>PLAZA JESSICA</t>
-  </si>
-  <si>
     <t>PUNTA DE ANCA</t>
   </si>
   <si>
     <t>SAMY 2</t>
-  </si>
-  <si>
-    <t>SAN JOAQUIN</t>
-  </si>
-  <si>
-    <t>SANTANDER SUR</t>
-  </si>
-  <si>
-    <t>TIMO</t>
   </si>
   <si>
     <t>WILINTONG</t>
@@ -486,7 +474,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46015</v>
+        <v>46022</v>
       </c>
       <c r="D2">
-        <v>166000</v>
+        <v>93000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -534,10 +522,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="D3">
-        <v>475000</v>
+        <v>166000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -551,10 +539,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46014</v>
+        <v>46021</v>
       </c>
       <c r="D4">
-        <v>71900</v>
+        <v>475000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -568,10 +556,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46015</v>
+        <v>46021</v>
       </c>
       <c r="D5">
-        <v>252000</v>
+        <v>18900</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -585,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46011</v>
+        <v>46024</v>
       </c>
       <c r="D6">
-        <v>166000</v>
+        <v>140000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -602,10 +590,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="2">
-        <v>46021</v>
+        <v>46015</v>
       </c>
       <c r="D7">
-        <v>354000</v>
+        <v>252000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -619,10 +607,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>46010</v>
+        <v>46021</v>
       </c>
       <c r="D8">
-        <v>375000</v>
+        <v>320000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -633,7 +621,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>46020</v>
@@ -650,7 +638,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
         <v>46018</v>
@@ -667,7 +655,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>46009</v>
@@ -684,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>45921</v>
@@ -701,7 +689,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -718,13 +706,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>46017</v>
+        <v>46022</v>
       </c>
       <c r="D14">
-        <v>545800</v>
+        <v>1600000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -735,7 +723,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
         <v>45996</v>
@@ -752,13 +740,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>46021</v>
+        <v>46017</v>
       </c>
       <c r="D16">
-        <v>1137000</v>
+        <v>545800</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -769,7 +757,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="2">
         <v>46020</v>
@@ -786,7 +774,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2">
         <v>46006</v>
@@ -803,13 +791,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>46020</v>
+        <v>45912</v>
       </c>
       <c r="D19">
-        <v>151000</v>
+        <v>82000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -820,13 +808,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>45912</v>
+        <v>46017</v>
       </c>
       <c r="D20">
-        <v>82000</v>
+        <v>190000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -837,13 +825,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>46017</v>
+        <v>46021</v>
       </c>
       <c r="D21">
-        <v>190000</v>
+        <v>1257600</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -854,13 +842,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>46021</v>
+        <v>45988</v>
       </c>
       <c r="D22">
-        <v>1257600</v>
+        <v>15400</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -888,13 +876,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>45988</v>
+        <v>46011</v>
       </c>
       <c r="D24">
-        <v>15400</v>
+        <v>80000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -905,13 +893,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="D25">
-        <v>80000</v>
+        <v>195000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -922,13 +910,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2">
         <v>46020</v>
       </c>
       <c r="D26">
-        <v>195000</v>
+        <v>276000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -939,13 +927,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>46020</v>
+        <v>46013</v>
       </c>
       <c r="D27">
-        <v>276000</v>
+        <v>328800</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -956,13 +944,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>46013</v>
+        <v>45931</v>
       </c>
       <c r="D28">
-        <v>328800</v>
+        <v>82000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -973,13 +961,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>45931</v>
+        <v>46020</v>
       </c>
       <c r="D29">
-        <v>82000</v>
+        <v>88400</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
@@ -990,13 +978,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>46020</v>
+        <v>46024</v>
       </c>
       <c r="D30">
-        <v>88400</v>
+        <v>307000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
@@ -1007,13 +995,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>46014</v>
+        <v>46021</v>
       </c>
       <c r="D31">
-        <v>1655400</v>
+        <v>203000</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -1027,10 +1015,10 @@
         <v>31</v>
       </c>
       <c r="C32" s="2">
-        <v>46017</v>
+        <v>46013</v>
       </c>
       <c r="D32">
-        <v>507000</v>
+        <v>142000</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
@@ -1044,131 +1032,12 @@
         <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>46020</v>
+        <v>46006</v>
       </c>
       <c r="D33">
-        <v>304000</v>
+        <v>100000</v>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="2">
-        <v>46021</v>
-      </c>
-      <c r="D34">
-        <v>203000</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
-        <v>46013</v>
-      </c>
-      <c r="D35">
-        <v>142000</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2">
-        <v>46015</v>
-      </c>
-      <c r="D36">
-        <v>229300</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2">
-        <v>46014</v>
-      </c>
-      <c r="D37">
-        <v>253000</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="2">
-        <v>46018</v>
-      </c>
-      <c r="D38">
-        <v>218000</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="2">
-        <v>46015</v>
-      </c>
-      <c r="D39">
-        <v>189000</v>
-      </c>
-      <c r="E39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D40">
-        <v>150000</v>
-      </c>
-      <c r="E40" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD19BD-3E23-4F31-8A53-806510622E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,6 +37,9 @@
     <t>Pagado</t>
   </si>
   <si>
+    <t>ALAMO</t>
+  </si>
+  <si>
     <t>ALISO</t>
   </si>
   <si>
@@ -43,9 +52,6 @@
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
-    <t>CANTON WOK</t>
-  </si>
-  <si>
     <t>CARNES JOHANA</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>CLIENTE PAOLA</t>
   </si>
   <si>
+    <t>COCINA CHINA</t>
+  </si>
+  <si>
     <t>CRISTIAN ACACIAS</t>
   </si>
   <si>
@@ -82,9 +91,6 @@
     <t>MAFE</t>
   </si>
   <si>
-    <t>MERKA FRUVER ALEJANDRO</t>
-  </si>
-  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>PINILLA</t>
-  </si>
-  <si>
-    <t>PLANADAS NUEVO</t>
   </si>
   <si>
     <t>PUNTA DE ANCA</t>
@@ -118,11 +121,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,13 +189,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +241,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -264,6 +275,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -298,9 +310,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,14 +486,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -505,16 +520,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46022</v>
+        <v>46027</v>
       </c>
       <c r="D2">
-        <v>93000</v>
+        <v>288000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -525,13 +540,13 @@
         <v>46022</v>
       </c>
       <c r="D3">
-        <v>166000</v>
+        <v>93000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -539,16 +554,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="D4">
-        <v>475000</v>
+        <v>166000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -559,13 +574,13 @@
         <v>46021</v>
       </c>
       <c r="D5">
-        <v>18900</v>
+        <v>475000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -573,89 +588,89 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46024</v>
+        <v>46021</v>
       </c>
       <c r="D6">
-        <v>140000</v>
+        <v>18900</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2">
+        <v>46021</v>
+      </c>
+      <c r="D7">
+        <v>320000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>46015</v>
-      </c>
-      <c r="D7">
-        <v>252000</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46020</v>
+      </c>
+      <c r="D8">
+        <v>449800</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>46021</v>
-      </c>
-      <c r="D8">
-        <v>320000</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46018</v>
+      </c>
+      <c r="D9">
+        <v>174000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>46020</v>
-      </c>
-      <c r="D9">
-        <v>449800</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D10">
+        <v>170000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>46018</v>
-      </c>
-      <c r="D10">
-        <v>174000</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>46009</v>
@@ -667,12 +682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>45921</v>
@@ -684,12 +699,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -701,12 +716,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
         <v>46022</v>
@@ -718,12 +733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
         <v>45996</v>
@@ -735,12 +750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
         <v>46017</v>
@@ -752,12 +767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
         <v>46020</v>
@@ -769,12 +784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>46006</v>
@@ -786,12 +801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>45912</v>
@@ -803,12 +818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
         <v>46017</v>
@@ -820,224 +835,190 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>46021</v>
+        <v>45988</v>
       </c>
       <c r="D21">
-        <v>1257600</v>
+        <v>15400</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="D22">
-        <v>15400</v>
+        <v>339000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>45995</v>
+        <v>46011</v>
       </c>
       <c r="D23">
-        <v>339000</v>
+        <v>80000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>46011</v>
+        <v>46020</v>
       </c>
       <c r="D24">
-        <v>80000</v>
+        <v>195000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
         <v>46020</v>
       </c>
       <c r="D25">
-        <v>195000</v>
+        <v>276000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>46020</v>
+        <v>46013</v>
       </c>
       <c r="D26">
-        <v>276000</v>
+        <v>328800</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
-        <v>46013</v>
+        <v>45931</v>
       </c>
       <c r="D27">
-        <v>328800</v>
+        <v>82000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
-        <v>45931</v>
+        <v>46027</v>
       </c>
       <c r="D28">
-        <v>82000</v>
+        <v>200000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="2">
-        <v>46020</v>
+        <v>46021</v>
       </c>
       <c r="D29">
-        <v>88400</v>
+        <v>203000</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" s="2">
-        <v>46024</v>
+        <v>46013</v>
       </c>
       <c r="D30">
-        <v>307000</v>
+        <v>142000</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="2">
-        <v>46021</v>
+        <v>46006</v>
       </c>
       <c r="D31">
-        <v>203000</v>
+        <v>100000</v>
       </c>
       <c r="E31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2">
-        <v>46013</v>
-      </c>
-      <c r="D32">
-        <v>142000</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D33">
-        <v>100000</v>
-      </c>
-      <c r="E33" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBD19BD-3E23-4F31-8A53-806510622E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -37,30 +31,27 @@
     <t>Pagado</t>
   </si>
   <si>
-    <t>ALAMO</t>
-  </si>
-  <si>
     <t>ALISO</t>
   </si>
   <si>
+    <t>ARANGOS 2</t>
+  </si>
+  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
-    <t>CAMPO VERDE TOCANCIPA</t>
-  </si>
-  <si>
     <t>CAMPO VERDE ZIPAQUIRA</t>
   </si>
   <si>
     <t>CARNES JOHANA</t>
   </si>
   <si>
+    <t>CARNILANDIA</t>
+  </si>
+  <si>
     <t>CIMARRON DORADO</t>
   </si>
   <si>
-    <t>CLIENTE PAOLA</t>
-  </si>
-  <si>
     <t>COCINA CHINA</t>
   </si>
   <si>
@@ -76,6 +67,9 @@
     <t>EL JORDAN</t>
   </si>
   <si>
+    <t>FERROCAM</t>
+  </si>
+  <si>
     <t>FRANCO</t>
   </si>
   <si>
@@ -88,9 +82,15 @@
     <t>LA SELECTA</t>
   </si>
   <si>
+    <t>LOS PAISANOS</t>
+  </si>
+  <si>
     <t>MAFE</t>
   </si>
   <si>
+    <t>MERKA FRUVER ALEJANDRO</t>
+  </si>
+  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
@@ -100,6 +100,9 @@
     <t>NEVADA</t>
   </si>
   <si>
+    <t>PARAISO FUNZA</t>
+  </si>
+  <si>
     <t>PARAÍSO FUNZA</t>
   </si>
   <si>
@@ -109,7 +112,13 @@
     <t>PINILLA</t>
   </si>
   <si>
+    <t>PLAZA JESSICA</t>
+  </si>
+  <si>
     <t>PUNTA DE ANCA</t>
+  </si>
+  <si>
+    <t>SAMY 1</t>
   </si>
   <si>
     <t>SAMY 2</t>
@@ -121,11 +130,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,21 +198,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -241,7 +242,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -275,7 +276,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,10 +310,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -486,16 +485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -520,16 +517,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46027</v>
+        <v>46022</v>
       </c>
       <c r="D2">
-        <v>288000</v>
+        <v>93000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -537,16 +534,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46022</v>
+        <v>46028</v>
       </c>
       <c r="D3">
-        <v>93000</v>
+        <v>284400</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -554,7 +551,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46022</v>
+        <v>46029</v>
       </c>
       <c r="D4">
         <v>166000</v>
@@ -563,29 +560,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>46021</v>
+        <v>46022</v>
       </c>
       <c r="D5">
-        <v>475000</v>
+        <v>166000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2">
         <v>46021</v>
@@ -597,63 +594,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>46028</v>
+      </c>
+      <c r="D7">
+        <v>164000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46028</v>
+      </c>
+      <c r="D8">
+        <v>200000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
-        <v>46021</v>
-      </c>
-      <c r="D7">
-        <v>320000</v>
-      </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>46031</v>
+      </c>
+      <c r="D9">
+        <v>658000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>46020</v>
-      </c>
-      <c r="D8">
-        <v>449800</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-      <c r="C9" s="2">
-        <v>46018</v>
-      </c>
-      <c r="D9">
-        <v>174000</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>46027</v>
@@ -665,12 +662,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
         <v>46009</v>
@@ -682,12 +679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
         <v>45921</v>
@@ -699,12 +696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>45947</v>
@@ -716,12 +713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
         <v>46022</v>
@@ -733,292 +730,428 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45996</v>
+        <v>46027</v>
       </c>
       <c r="D15">
-        <v>20000</v>
+        <v>370000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="2">
+        <v>45996</v>
+      </c>
+      <c r="D16">
+        <v>20000</v>
+      </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2">
         <v>46017</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>545800</v>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2">
+        <v>46020</v>
+      </c>
+      <c r="D18">
+        <v>215300</v>
+      </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>46006</v>
+      </c>
+      <c r="D19">
+        <v>229900</v>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D20">
+        <v>82000</v>
+      </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>46030</v>
+      </c>
+      <c r="D21">
+        <v>635000</v>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>46030</v>
+      </c>
+      <c r="D22">
+        <v>344000</v>
+      </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>46017</v>
+      </c>
+      <c r="D23">
+        <v>190000</v>
+      </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="2">
+        <v>46030</v>
+      </c>
+      <c r="D24">
+        <v>201000</v>
+      </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>45988</v>
+      </c>
+      <c r="D25">
+        <v>15400</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2">
+        <v>45995</v>
+      </c>
+      <c r="D26">
+        <v>339000</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2">
+        <v>46011</v>
+      </c>
+      <c r="D27">
+        <v>80000</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="2">
         <v>46020</v>
       </c>
-      <c r="D17">
-        <v>215300</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="2">
+      <c r="D28">
+        <v>195000</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="2">
+        <v>46020</v>
+      </c>
+      <c r="D30">
+        <v>276000</v>
+      </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="2">
+        <v>46013</v>
+      </c>
+      <c r="D31">
+        <v>328800</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D32">
+        <v>82000</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>46028</v>
+      </c>
+      <c r="D33">
+        <v>1285500</v>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="2">
+        <v>46027</v>
+      </c>
+      <c r="D34">
+        <v>200000</v>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="2">
+        <v>46031</v>
+      </c>
+      <c r="D35">
+        <v>657000</v>
+      </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="2">
+        <v>46021</v>
+      </c>
+      <c r="D36">
+        <v>205000</v>
+      </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2">
+        <v>46013</v>
+      </c>
+      <c r="D37">
+        <v>142000</v>
+      </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="2">
+        <v>46021</v>
+      </c>
+      <c r="D38">
+        <v>203000</v>
+      </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="2">
         <v>46006</v>
       </c>
-      <c r="D18">
-        <v>229900</v>
-      </c>
-      <c r="E18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45912</v>
-      </c>
-      <c r="D19">
-        <v>82000</v>
-      </c>
-      <c r="E19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="2">
-        <v>46017</v>
-      </c>
-      <c r="D20">
-        <v>190000</v>
-      </c>
-      <c r="E20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>45988</v>
-      </c>
-      <c r="D21">
-        <v>15400</v>
-      </c>
-      <c r="E21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="2">
-        <v>45995</v>
-      </c>
-      <c r="D22">
-        <v>339000</v>
-      </c>
-      <c r="E22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="2">
-        <v>46011</v>
-      </c>
-      <c r="D23">
-        <v>80000</v>
-      </c>
-      <c r="E23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="2">
-        <v>46020</v>
-      </c>
-      <c r="D24">
-        <v>195000</v>
-      </c>
-      <c r="E24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="2">
-        <v>46020</v>
-      </c>
-      <c r="D25">
-        <v>276000</v>
-      </c>
-      <c r="E25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2">
-        <v>46013</v>
-      </c>
-      <c r="D26">
-        <v>328800</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45931</v>
-      </c>
-      <c r="D27">
-        <v>82000</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="2">
-        <v>46027</v>
-      </c>
-      <c r="D28">
-        <v>200000</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="2">
-        <v>46021</v>
-      </c>
-      <c r="D29">
-        <v>203000</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2">
-        <v>46013</v>
-      </c>
-      <c r="D30">
-        <v>142000</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D31">
+      <c r="D39">
         <v>100000</v>
       </c>
-      <c r="E31" t="b">
+      <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7958C-E1C1-4E4A-95F1-D10EDA80A7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -34,9 +53,6 @@
     <t>ALISO</t>
   </si>
   <si>
-    <t>ARANGOS 2</t>
-  </si>
-  <si>
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
@@ -55,9 +71,6 @@
     <t>COCINA CHINA</t>
   </si>
   <si>
-    <t>CRISTIAN ACACIAS</t>
-  </si>
-  <si>
     <t>DARWIN FUTBOL</t>
   </si>
   <si>
@@ -67,48 +80,27 @@
     <t>EL JORDAN</t>
   </si>
   <si>
-    <t>FERROCAM</t>
-  </si>
-  <si>
     <t>FRANCO</t>
   </si>
   <si>
-    <t>LA CABAÑA</t>
-  </si>
-  <si>
-    <t>LA PAMPA</t>
-  </si>
-  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>LOS PAISANOS</t>
+    <t>LINARIA</t>
   </si>
   <si>
     <t>MAFE</t>
   </si>
   <si>
-    <t>MERKA FRUVER ALEJANDRO</t>
-  </si>
-  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
-    <t>MICHAEL</t>
-  </si>
-  <si>
     <t>NEVADA</t>
   </si>
   <si>
     <t>PARAISO FUNZA</t>
   </si>
   <si>
-    <t>PARAÍSO FUNZA</t>
-  </si>
-  <si>
-    <t>PARAÍSO MOSQUERA</t>
-  </si>
-  <si>
     <t>PINILLA</t>
   </si>
   <si>
@@ -118,23 +110,23 @@
     <t>PUNTA DE ANCA</t>
   </si>
   <si>
-    <t>SAMY 1</t>
-  </si>
-  <si>
-    <t>SAMY 2</t>
-  </si>
-  <si>
-    <t>WILINTONG</t>
+    <t>EL RUBY</t>
+  </si>
+  <si>
+    <t>CALDAS WOK</t>
+  </si>
+  <si>
+    <t>CARNIVOROS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +190,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,7 +242,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -276,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -310,9 +311,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -485,14 +487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -517,16 +525,16 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46022</v>
+        <v>46032</v>
       </c>
       <c r="D2">
-        <v>93000</v>
+        <v>147000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -534,16 +542,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46028</v>
+        <v>46029</v>
       </c>
       <c r="D3">
-        <v>284400</v>
+        <v>166000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,84 +559,84 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46029</v>
+        <v>46021</v>
       </c>
       <c r="D4">
-        <v>166000</v>
+        <v>18900</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46022</v>
+        <v>46035</v>
       </c>
       <c r="D5">
-        <v>166000</v>
+        <v>164000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46021</v>
+        <v>46028</v>
       </c>
       <c r="D6">
-        <v>18900</v>
+        <v>100000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46028</v>
+        <v>46035</v>
       </c>
       <c r="D7">
-        <v>164000</v>
+        <v>797000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46028</v>
+        <v>46031</v>
       </c>
       <c r="D8">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -636,16 +644,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>46031</v>
+        <v>46036</v>
       </c>
       <c r="D9">
-        <v>658000</v>
+        <v>170000</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -653,16 +661,16 @@
         <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>46027</v>
+        <v>45921</v>
       </c>
       <c r="D10">
-        <v>170000</v>
+        <v>200000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -670,16 +678,16 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>46009</v>
+        <v>45947</v>
       </c>
       <c r="D11">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -687,16 +695,16 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>45921</v>
+        <v>46022</v>
       </c>
       <c r="D12">
-        <v>200000</v>
+        <v>1600000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -704,67 +712,67 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>45947</v>
+        <v>45996</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>46022</v>
+        <v>46017</v>
       </c>
       <c r="D14">
-        <v>1600000</v>
+        <v>545800</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>46027</v>
+        <v>45912</v>
       </c>
       <c r="D15">
-        <v>370000</v>
+        <v>82000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="2">
-        <v>45996</v>
+        <v>46034</v>
       </c>
       <c r="D16">
-        <v>20000</v>
+        <v>185000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -772,16 +780,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="2">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="D17">
-        <v>545800</v>
+        <v>521300</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -789,67 +797,67 @@
         <v>19</v>
       </c>
       <c r="C18" s="2">
-        <v>46020</v>
+        <v>45995</v>
       </c>
       <c r="D18">
-        <v>215300</v>
+        <v>339000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="2">
-        <v>46006</v>
+        <v>45988</v>
       </c>
       <c r="D19">
-        <v>229900</v>
+        <v>15400</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2">
-        <v>45912</v>
+        <v>46031</v>
       </c>
       <c r="D20">
-        <v>82000</v>
+        <v>321900</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
-        <v>46030</v>
+        <v>46035</v>
       </c>
       <c r="D21">
-        <v>635000</v>
+        <v>100000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -857,16 +865,16 @@
         <v>22</v>
       </c>
       <c r="C22" s="2">
-        <v>46030</v>
+        <v>45931</v>
       </c>
       <c r="D22">
-        <v>344000</v>
+        <v>82000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -874,50 +882,50 @@
         <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>46017</v>
+        <v>46028</v>
       </c>
       <c r="D23">
-        <v>190000</v>
+        <v>285500</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>46030</v>
+        <v>46033</v>
       </c>
       <c r="D24">
-        <v>201000</v>
+        <v>702500</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2">
-        <v>45988</v>
+        <v>46031</v>
       </c>
       <c r="D25">
-        <v>15400</v>
+        <v>257000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -925,16 +933,16 @@
         <v>25</v>
       </c>
       <c r="C26" s="2">
-        <v>45995</v>
+        <v>46035</v>
       </c>
       <c r="D26">
-        <v>339000</v>
+        <v>110600</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -942,16 +950,16 @@
         <v>26</v>
       </c>
       <c r="C27" s="2">
-        <v>46011</v>
+        <v>46035</v>
       </c>
       <c r="D27">
-        <v>80000</v>
+        <v>85000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -959,199 +967,12 @@
         <v>27</v>
       </c>
       <c r="C28" s="2">
-        <v>46020</v>
+        <v>46036</v>
       </c>
       <c r="D28">
-        <v>195000</v>
+        <v>196800</v>
       </c>
       <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="2">
-        <v>46027</v>
-      </c>
-      <c r="D29">
-        <v>100000</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="2">
-        <v>46020</v>
-      </c>
-      <c r="D30">
-        <v>276000</v>
-      </c>
-      <c r="E30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="2">
-        <v>46013</v>
-      </c>
-      <c r="D31">
-        <v>328800</v>
-      </c>
-      <c r="E31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="2">
-        <v>45931</v>
-      </c>
-      <c r="D32">
-        <v>82000</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="2">
-        <v>46028</v>
-      </c>
-      <c r="D33">
-        <v>1285500</v>
-      </c>
-      <c r="E33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="2">
-        <v>46027</v>
-      </c>
-      <c r="D34">
-        <v>200000</v>
-      </c>
-      <c r="E34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="2">
-        <v>46031</v>
-      </c>
-      <c r="D35">
-        <v>657000</v>
-      </c>
-      <c r="E35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="2">
-        <v>46021</v>
-      </c>
-      <c r="D36">
-        <v>205000</v>
-      </c>
-      <c r="E36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="2">
-        <v>46013</v>
-      </c>
-      <c r="D37">
-        <v>142000</v>
-      </c>
-      <c r="E37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2">
-        <v>46021</v>
-      </c>
-      <c r="D38">
-        <v>203000</v>
-      </c>
-      <c r="E38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2">
-        <v>46006</v>
-      </c>
-      <c r="D39">
-        <v>100000</v>
-      </c>
-      <c r="E39" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\El_Diamante\AppDeudores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE7958C-E1C1-4E4A-95F1-D10EDA80A7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8E2A3-47F5-4348-BD53-1718B93A684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -56,9 +57,6 @@
     <t>ARROZ PAISA SUBA</t>
   </si>
   <si>
-    <t>CAMPO VERDE ZIPAQUIRA</t>
-  </si>
-  <si>
     <t>CARNES JOHANA</t>
   </si>
   <si>
@@ -77,18 +75,12 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
-    <t>EL JORDAN</t>
-  </si>
-  <si>
     <t>FRANCO</t>
   </si>
   <si>
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>LINARIA</t>
-  </si>
-  <si>
     <t>MAFE</t>
   </si>
   <si>
@@ -110,13 +102,28 @@
     <t>PUNTA DE ANCA</t>
   </si>
   <si>
-    <t>EL RUBY</t>
-  </si>
-  <si>
     <t>CALDAS WOK</t>
   </si>
   <si>
     <t>CARNIVOROS</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
+  </si>
+  <si>
+    <t>MERKA FRUVER ALEJANDRO</t>
+  </si>
+  <si>
+    <t>MULTICARNES</t>
+  </si>
+  <si>
+    <t>WILLINTONG</t>
+  </si>
+  <si>
+    <t>DOÑA SANDRA</t>
+  </si>
+  <si>
+    <t>PINILLA SOACHA</t>
   </si>
 </sst>
 </file>
@@ -488,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46032</v>
+        <v>46039</v>
       </c>
       <c r="D2">
-        <v>147000</v>
+        <v>108000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -559,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46021</v>
+        <v>46035</v>
       </c>
       <c r="D4">
-        <v>18900</v>
+        <v>164000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -576,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46035</v>
+        <v>46039</v>
       </c>
       <c r="D5">
-        <v>164000</v>
+        <v>546000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -593,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46028</v>
+        <v>46038</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>337000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -610,10 +617,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46035</v>
+        <v>46031</v>
       </c>
       <c r="D7">
-        <v>797000</v>
+        <v>170000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -624,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
-        <v>46031</v>
+        <v>46036</v>
       </c>
       <c r="D8">
         <v>170000</v>
@@ -641,10 +648,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
-        <v>46036</v>
+        <v>46039</v>
       </c>
       <c r="D9">
         <v>170000</v>
@@ -658,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2">
         <v>45921</v>
@@ -675,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2">
         <v>45947</v>
@@ -692,13 +699,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2">
-        <v>46022</v>
+        <v>45996</v>
       </c>
       <c r="D12">
-        <v>1600000</v>
+        <v>20000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -709,13 +716,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2">
-        <v>45996</v>
+        <v>45912</v>
       </c>
       <c r="D13">
-        <v>20000</v>
+        <v>82000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -729,10 +736,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="2">
-        <v>46017</v>
+        <v>46034</v>
       </c>
       <c r="D14">
-        <v>545800</v>
+        <v>521300</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -746,10 +753,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>45912</v>
+        <v>45995</v>
       </c>
       <c r="D15">
-        <v>82000</v>
+        <v>339000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -760,13 +767,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="2">
-        <v>46034</v>
+        <v>45988</v>
       </c>
       <c r="D16">
-        <v>185000</v>
+        <v>15400</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -777,13 +784,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="2">
-        <v>46034</v>
+        <v>46031</v>
       </c>
       <c r="D17">
-        <v>521300</v>
+        <v>21900</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -794,13 +801,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
-        <v>45995</v>
+        <v>46038</v>
       </c>
       <c r="D18">
-        <v>339000</v>
+        <v>175800</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -811,13 +818,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
-        <v>45988</v>
+        <v>46038</v>
       </c>
       <c r="D19">
-        <v>15400</v>
+        <v>76000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -828,13 +835,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
-        <v>46031</v>
+        <v>45931</v>
       </c>
       <c r="D20">
-        <v>321900</v>
+        <v>82000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -845,13 +852,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
-        <v>46035</v>
+        <v>46039</v>
       </c>
       <c r="D21">
-        <v>100000</v>
+        <v>1349200</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -862,13 +869,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
-        <v>45931</v>
+        <v>46039</v>
       </c>
       <c r="D22">
-        <v>82000</v>
+        <v>66000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -879,13 +886,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
-        <v>46028</v>
+        <v>46038</v>
       </c>
       <c r="D23">
-        <v>285500</v>
+        <v>100000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -896,13 +903,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="2">
-        <v>46033</v>
+        <v>46039</v>
       </c>
       <c r="D24">
-        <v>702500</v>
+        <v>100000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -913,13 +920,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <v>46031</v>
+        <v>46035</v>
       </c>
       <c r="D25">
-        <v>257000</v>
+        <v>85000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -930,13 +937,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <v>46035</v>
+        <v>46036</v>
       </c>
       <c r="D26">
-        <v>110600</v>
+        <v>196800</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -947,13 +954,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C27" s="2">
-        <v>46035</v>
+        <v>46039</v>
       </c>
       <c r="D27">
-        <v>85000</v>
+        <v>266000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -964,15 +971,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2">
-        <v>46036</v>
+        <v>46037</v>
       </c>
       <c r="D28">
-        <v>196800</v>
+        <v>788000</v>
       </c>
       <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2">
+        <v>46037</v>
+      </c>
+      <c r="D29">
+        <v>787000</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="2">
+        <v>46038</v>
+      </c>
+      <c r="D30">
+        <v>646900</v>
+      </c>
+      <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\El_Diamante\AppDeudores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E8E2A3-47F5-4348-BD53-1718B93A684B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C7DCF-B1BA-4734-BEDC-B3540D7B7000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -497,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,7 +976,7 @@
         <v>46037</v>
       </c>
       <c r="D28">
-        <v>788000</v>
+        <v>290000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\El_Diamante\AppDeudores\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41C7DCF-B1BA-4734-BEDC-B3540D7B7000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -53,7 +34,10 @@
     <t>ALISO</t>
   </si>
   <si>
-    <t>ARROZ PAISA SUBA</t>
+    <t>CALDAS WOK</t>
+  </si>
+  <si>
+    <t>CAMPO VERDE TOCANCIPA</t>
   </si>
   <si>
     <t>CARNES JOHANA</t>
@@ -62,6 +46,9 @@
     <t>CARNILANDIA</t>
   </si>
   <si>
+    <t>CARNIVOROS</t>
+  </si>
+  <si>
     <t>CIMARRON DORADO</t>
   </si>
   <si>
@@ -74,18 +61,24 @@
     <t>DAVIDCITO</t>
   </si>
   <si>
+    <t>DOÑA SANDRA</t>
+  </si>
+  <si>
     <t>FRANCO</t>
   </si>
   <si>
+    <t>JULIANA POLLO</t>
+  </si>
+  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>MAFE</t>
-  </si>
-  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
+    <t>MULTICARNES</t>
+  </si>
+  <si>
     <t>NEVADA</t>
   </si>
   <si>
@@ -95,44 +88,23 @@
     <t>PINILLA</t>
   </si>
   <si>
+    <t>PINILLA SOACHA</t>
+  </si>
+  <si>
     <t>PLAZA JESSICA</t>
   </si>
   <si>
-    <t>PUNTA DE ANCA</t>
-  </si>
-  <si>
-    <t>CALDAS WOK</t>
-  </si>
-  <si>
-    <t>CARNIVOROS</t>
-  </si>
-  <si>
-    <t>CAMPO VERDE TOCANCIPA</t>
-  </si>
-  <si>
-    <t>MERKA FRUVER ALEJANDRO</t>
-  </si>
-  <si>
-    <t>MULTICARNES</t>
-  </si>
-  <si>
-    <t>WILLINTONG</t>
-  </si>
-  <si>
-    <t>DOÑA SANDRA</t>
-  </si>
-  <si>
-    <t>PINILLA SOACHA</t>
+    <t>SANTANDER SUR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,21 +168,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -248,7 +212,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -282,7 +246,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,10 +280,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,20 +455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -534,13 +490,13 @@
         <v>46039</v>
       </c>
       <c r="D2">
-        <v>108000</v>
+        <v>50000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -548,16 +504,16 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46029</v>
+        <v>46035</v>
       </c>
       <c r="D3">
-        <v>166000</v>
+        <v>85000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -565,16 +521,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46035</v>
+        <v>46037</v>
       </c>
       <c r="D4">
-        <v>164000</v>
+        <v>290000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -582,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46039</v>
+        <v>46041</v>
       </c>
       <c r="D5">
-        <v>546000</v>
+        <v>164000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -599,16 +555,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46038</v>
+        <v>46042</v>
       </c>
       <c r="D6">
-        <v>337000</v>
+        <v>170000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -616,38 +572,38 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46031</v>
+        <v>46036</v>
       </c>
       <c r="D7">
-        <v>170000</v>
+        <v>196800</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="D8">
-        <v>170000</v>
+        <v>426500</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>46039</v>
@@ -659,12 +615,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>45921</v>
@@ -676,12 +632,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>45947</v>
@@ -693,326 +649,241 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
-        <v>45996</v>
+        <v>46039</v>
       </c>
       <c r="D12">
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C13" s="2">
-        <v>45912</v>
+        <v>45996</v>
       </c>
       <c r="D13">
-        <v>82000</v>
+        <v>20000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="2">
-        <v>46034</v>
+        <v>46042</v>
       </c>
       <c r="D14">
-        <v>521300</v>
+        <v>264000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2">
-        <v>45995</v>
+        <v>45912</v>
       </c>
       <c r="D15">
-        <v>339000</v>
+        <v>82000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <v>45988</v>
+        <v>45995</v>
       </c>
       <c r="D16">
-        <v>15400</v>
+        <v>339000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>46031</v>
+        <v>45988</v>
       </c>
       <c r="D17">
-        <v>21900</v>
+        <v>15400</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2">
         <v>46038</v>
       </c>
       <c r="D18">
-        <v>175800</v>
+        <v>646900</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2">
         <v>46038</v>
       </c>
       <c r="D19">
-        <v>76000</v>
+        <v>175800</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20" s="2">
-        <v>45931</v>
+        <v>46031</v>
       </c>
       <c r="D20">
-        <v>82000</v>
+        <v>21900</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>46039</v>
+        <v>46038</v>
       </c>
       <c r="D21">
-        <v>1349200</v>
+        <v>76000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>46039</v>
+        <v>45931</v>
       </c>
       <c r="D22">
-        <v>66000</v>
+        <v>82000</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>46038</v>
+        <v>46039</v>
       </c>
       <c r="D23">
-        <v>100000</v>
+        <v>266000</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2">
         <v>46039</v>
       </c>
       <c r="D24">
-        <v>100000</v>
+        <v>1349200</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2">
-        <v>46035</v>
+        <v>46042</v>
       </c>
       <c r="D25">
-        <v>85000</v>
+        <v>176000</v>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2">
-        <v>46036</v>
-      </c>
-      <c r="D26">
-        <v>196800</v>
-      </c>
-      <c r="E26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="2">
-        <v>46039</v>
-      </c>
-      <c r="D27">
-        <v>266000</v>
-      </c>
-      <c r="E27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="2">
-        <v>46037</v>
-      </c>
-      <c r="D28">
-        <v>290000</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2">
-        <v>46037</v>
-      </c>
-      <c r="D29">
-        <v>787000</v>
-      </c>
-      <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="2">
-        <v>46038</v>
-      </c>
-      <c r="D30">
-        <v>646900</v>
-      </c>
-      <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -34,27 +34,33 @@
     <t>ALISO</t>
   </si>
   <si>
+    <t>ARROZ PAISA SUBA</t>
+  </si>
+  <si>
     <t>CALDAS WOK</t>
   </si>
   <si>
     <t>CAMPO VERDE TOCANCIPA</t>
   </si>
   <si>
+    <t>CAMPO VERDE ZIPAQUIRA</t>
+  </si>
+  <si>
     <t>CARNES JOHANA</t>
   </si>
   <si>
     <t>CARNILANDIA</t>
   </si>
   <si>
-    <t>CARNIVOROS</t>
-  </si>
-  <si>
     <t>CIMARRON DORADO</t>
   </si>
   <si>
     <t>COCINA CHINA</t>
   </si>
   <si>
+    <t>CRISTIAN ACACIAS</t>
+  </si>
+  <si>
     <t>DARWIN FUTBOL</t>
   </si>
   <si>
@@ -70,7 +76,13 @@
     <t>JULIANA POLLO</t>
   </si>
   <si>
+    <t>LA 13</t>
+  </si>
+  <si>
     <t>LA SELECTA</t>
+  </si>
+  <si>
+    <t>LOS PAISANOS</t>
   </si>
   <si>
     <t>MERKA FRUVER DEXI</t>
@@ -456,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46035</v>
+        <v>46043</v>
       </c>
       <c r="D3">
-        <v>85000</v>
+        <v>166000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -521,10 +533,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46037</v>
+        <v>46035</v>
       </c>
       <c r="D4">
-        <v>290000</v>
+        <v>85000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -538,10 +550,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>46041</v>
+        <v>46044</v>
       </c>
       <c r="D5">
-        <v>164000</v>
+        <v>285000</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -555,10 +567,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46042</v>
+        <v>46044</v>
       </c>
       <c r="D6">
-        <v>170000</v>
+        <v>483000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -572,10 +584,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46036</v>
+        <v>46041</v>
       </c>
       <c r="D7">
-        <v>196800</v>
+        <v>164000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -589,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46041</v>
+        <v>46042</v>
       </c>
       <c r="D8">
-        <v>426500</v>
+        <v>170000</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -606,10 +618,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="2">
-        <v>46039</v>
+        <v>46041</v>
       </c>
       <c r="D9">
-        <v>170000</v>
+        <v>426500</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -623,10 +635,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="2">
-        <v>45921</v>
+        <v>46043</v>
       </c>
       <c r="D10">
-        <v>200000</v>
+        <v>170000</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -637,13 +649,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>45947</v>
+        <v>46039</v>
       </c>
       <c r="D11">
-        <v>100000</v>
+        <v>170000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -654,13 +666,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>46039</v>
+        <v>46042</v>
       </c>
       <c r="D12">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -671,13 +683,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>45996</v>
+        <v>45921</v>
       </c>
       <c r="D13">
-        <v>20000</v>
+        <v>200000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -688,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>46042</v>
+        <v>45947</v>
       </c>
       <c r="D14">
-        <v>264000</v>
+        <v>100000</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -705,13 +717,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>45912</v>
+        <v>46039</v>
       </c>
       <c r="D15">
-        <v>82000</v>
+        <v>100000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -722,13 +734,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="2">
-        <v>45995</v>
+        <v>45996</v>
       </c>
       <c r="D16">
-        <v>339000</v>
+        <v>20000</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -742,10 +754,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>45988</v>
+        <v>46042</v>
       </c>
       <c r="D17">
-        <v>15400</v>
+        <v>264000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -759,10 +771,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="2">
-        <v>46038</v>
+        <v>46044</v>
       </c>
       <c r="D18">
-        <v>646900</v>
+        <v>299000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -776,10 +788,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="2">
-        <v>46038</v>
+        <v>45912</v>
       </c>
       <c r="D19">
-        <v>175800</v>
+        <v>82000</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -790,13 +802,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>46031</v>
+        <v>46044</v>
       </c>
       <c r="D20">
-        <v>21900</v>
+        <v>453000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -807,13 +819,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2">
-        <v>46038</v>
+        <v>45995</v>
       </c>
       <c r="D21">
-        <v>76000</v>
+        <v>339000</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -827,10 +839,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>45931</v>
+        <v>45988</v>
       </c>
       <c r="D22">
-        <v>82000</v>
+        <v>15400</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -844,10 +856,10 @@
         <v>24</v>
       </c>
       <c r="C23" s="2">
-        <v>46039</v>
+        <v>46038</v>
       </c>
       <c r="D23">
-        <v>266000</v>
+        <v>646900</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -861,10 +873,10 @@
         <v>25</v>
       </c>
       <c r="C24" s="2">
-        <v>46039</v>
+        <v>46038</v>
       </c>
       <c r="D24">
-        <v>1349200</v>
+        <v>175800</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -875,15 +887,100 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>46031</v>
+      </c>
+      <c r="D25">
+        <v>21900</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
+        <v>46038</v>
+      </c>
+      <c r="D26">
+        <v>76000</v>
+      </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D27">
+        <v>82000</v>
+      </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="2">
+        <v>46039</v>
+      </c>
+      <c r="D28">
+        <v>266000</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="2">
+        <v>46039</v>
+      </c>
+      <c r="D29">
+        <v>1349200</v>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2">
         <v>46042</v>
       </c>
-      <c r="D25">
+      <c r="D30">
         <v>176000</v>
       </c>
-      <c r="E25" t="b">
+      <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>

--- a/DeudoresPrueba.xlsx
+++ b/DeudoresPrueba.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Consecutivo</t>
   </si>
@@ -31,21 +31,18 @@
     <t>Pagado</t>
   </si>
   <si>
+    <t>ABEL POLLO</t>
+  </si>
+  <si>
     <t>ALISO</t>
   </si>
   <si>
-    <t>ARROZ PAISA SUBA</t>
-  </si>
-  <si>
-    <t>CALDAS WOK</t>
+    <t>CAMILIN</t>
   </si>
   <si>
     <t>CAMPO VERDE TOCANCIPA</t>
   </si>
   <si>
-    <t>CAMPO VERDE ZIPAQUIRA</t>
-  </si>
-  <si>
     <t>CARNES JOHANA</t>
   </si>
   <si>
@@ -70,27 +67,24 @@
     <t>DOÑA SANDRA</t>
   </si>
   <si>
+    <t>EL RUBY</t>
+  </si>
+  <si>
     <t>FRANCO</t>
   </si>
   <si>
+    <t>JUAN DAVID</t>
+  </si>
+  <si>
     <t>JULIANA POLLO</t>
   </si>
   <si>
-    <t>LA 13</t>
-  </si>
-  <si>
     <t>LA SELECTA</t>
   </si>
   <si>
-    <t>LOS PAISANOS</t>
-  </si>
-  <si>
     <t>MERKA FRUVER DEXI</t>
   </si>
   <si>
-    <t>MULTICARNES</t>
-  </si>
-  <si>
     <t>NEVADA</t>
   </si>
   <si>
@@ -106,7 +100,10 @@
     <t>PLAZA JESSICA</t>
   </si>
   <si>
-    <t>SANTANDER SUR</t>
+    <t>PREMIUM</t>
+  </si>
+  <si>
+    <t>PUNTA DE ANCA</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -499,10 +496,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="2">
-        <v>46039</v>
+        <v>46046</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>83000</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -516,10 +513,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>46043</v>
+        <v>46048</v>
       </c>
       <c r="D3">
-        <v>166000</v>
+        <v>100000</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -533,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>46035</v>
+        <v>46046</v>
       </c>
       <c r="D4">
-        <v>85000</v>
+        <v>545000</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -567,10 +564,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="2">
-        <v>46044</v>
+        <v>46045</v>
       </c>
       <c r="D6">
-        <v>483000</v>
+        <v>164000</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
@@ -584,10 +581,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>46041</v>
+        <v>46046</v>
       </c>
       <c r="D7">
-        <v>164000</v>
+        <v>280000</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -601,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>46042</v>
+        <v>46041</v>
       </c>
       <c r="D8">
-        <v>170000</v>
+        <v>426500</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -615,13 +612,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>46041</v>
+        <v>46045</v>
       </c>
       <c r="D9">
-        <v>426500</v>
+        <v>403800</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -632,10 +629,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2">
-        <v>46043</v>
+        <v>46047</v>
       </c>
       <c r="D10">
         <v>170000</v>
@@ -652,10 +649,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="2">
-        <v>46039</v>
+        <v>46042</v>
       </c>
       <c r="D11">
-        <v>170000</v>
+        <v>1000000</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -669,10 +666,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>46042</v>
+        <v>45921</v>
       </c>
       <c r="D12">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -686,10 +683,10 @@
         <v>15</v>
       </c>
       <c r="C13" s="2">
-        <v>45921</v>
+        <v>45947</v>
       </c>
       <c r="D13">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -703,7 +700,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>45947</v>
+        <v>46039</v>
       </c>
       <c r="D14">
         <v>100000</v>
@@ -720,10 +717,10 @@
         <v>17</v>
       </c>
       <c r="C15" s="2">
-        <v>46039</v>
+        <v>46045</v>
       </c>
       <c r="D15">
-        <v>100000</v>
+        <v>188000</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -754,10 +751,10 @@
         <v>19</v>
       </c>
       <c r="C17" s="2">
-        <v>46042</v>
+        <v>46046</v>
       </c>
       <c r="D17">
-        <v>264000</v>
+        <v>560000</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -771,10 +768,10 @@
         <v>20</v>
       </c>
       <c r="C18" s="2">
-        <v>46044</v>
+        <v>46042</v>
       </c>
       <c r="D18">
-        <v>299000</v>
+        <v>264000</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -805,10 +802,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="2">
-        <v>46044</v>
+        <v>45995</v>
       </c>
       <c r="D20">
-        <v>453000</v>
+        <v>339000</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -819,13 +816,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="2">
-        <v>45995</v>
+        <v>45988</v>
       </c>
       <c r="D21">
-        <v>339000</v>
+        <v>15400</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -839,10 +836,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="2">
-        <v>45988</v>
+        <v>46031</v>
       </c>
       <c r="D22">
-        <v>15400</v>
+        <v>21900</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -853,13 +850,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
         <v>46038</v>
       </c>
       <c r="D23">
-        <v>646900</v>
+        <v>175800</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -870,13 +867,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>46038</v>
+        <v>46045</v>
       </c>
       <c r="D24">
-        <v>175800</v>
+        <v>173000</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -890,10 +887,10 @@
         <v>25</v>
       </c>
       <c r="C25" s="2">
-        <v>46031</v>
+        <v>45931</v>
       </c>
       <c r="D25">
-        <v>21900</v>
+        <v>82000</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -907,10 +904,10 @@
         <v>26</v>
       </c>
       <c r="C26" s="2">
-        <v>46038</v>
+        <v>46046</v>
       </c>
       <c r="D26">
-        <v>76000</v>
+        <v>148000</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -924,10 +921,10 @@
         <v>27</v>
       </c>
       <c r="C27" s="2">
-        <v>45931</v>
+        <v>46047</v>
       </c>
       <c r="D27">
-        <v>82000</v>
+        <v>1344000</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -941,10 +938,10 @@
         <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>46039</v>
+        <v>46046</v>
       </c>
       <c r="D28">
-        <v>266000</v>
+        <v>178000</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -958,29 +955,12 @@
         <v>29</v>
       </c>
       <c r="C29" s="2">
-        <v>46039</v>
+        <v>46045</v>
       </c>
       <c r="D29">
-        <v>1349200</v>
+        <v>965000</v>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="2">
-        <v>46042</v>
-      </c>
-      <c r="D30">
-        <v>176000</v>
-      </c>
-      <c r="E30" t="b">
         <v>0</v>
       </c>
     </row>
